--- a/Bases_de_Dados_(2022-2023)/Cyprus Second Division_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Cyprus Second Division_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="275">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -574,6 +574,15 @@
     <t>['51', '53', '58']</t>
   </si>
   <si>
+    <t>['8', '89']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['22', '55', '62']</t>
+  </si>
+  <si>
     <t>['80']</t>
   </si>
   <si>
@@ -821,6 +830,15 @@
   </si>
   <si>
     <t>['74', '79']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['14']</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK181"/>
+  <dimension ref="A1:BK186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1426,7 +1444,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q2">
         <v>-1</v>
@@ -1513,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT2">
         <v>2</v>
@@ -1617,7 +1635,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1704,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT3">
         <v>0.92</v>
@@ -1999,7 +2017,7 @@
         <v>81</v>
       </c>
       <c r="P5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -2190,7 +2208,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q6">
         <v>-1</v>
@@ -2280,7 +2298,7 @@
         <v>1.5</v>
       </c>
       <c r="AT6">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2471,7 +2489,7 @@
         <v>1.09</v>
       </c>
       <c r="AT7">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2572,7 +2590,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2659,10 +2677,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT8">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2954,7 +2972,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3145,7 +3163,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3235,7 +3253,7 @@
         <v>1.36</v>
       </c>
       <c r="AT11">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3423,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT12">
         <v>1.55</v>
@@ -3527,7 +3545,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -3614,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT13">
         <v>1.8</v>
@@ -3909,7 +3927,7 @@
         <v>90</v>
       </c>
       <c r="P15" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4100,7 +4118,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4190,7 +4208,7 @@
         <v>0.55</v>
       </c>
       <c r="AT16">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4291,7 +4309,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -4381,7 +4399,7 @@
         <v>0.63</v>
       </c>
       <c r="AT17">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4482,7 +4500,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4569,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT18">
         <v>1.55</v>
@@ -4673,7 +4691,7 @@
         <v>81</v>
       </c>
       <c r="P19" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4763,7 +4781,7 @@
         <v>1.67</v>
       </c>
       <c r="AT19">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU19">
         <v>1.49</v>
@@ -4864,7 +4882,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q20">
         <v>-1</v>
@@ -4951,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT20">
         <v>1.58</v>
@@ -5437,7 +5455,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -5527,7 +5545,7 @@
         <v>1.09</v>
       </c>
       <c r="AT23">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU23">
         <v>1.09</v>
@@ -5715,7 +5733,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT24">
         <v>0.92</v>
@@ -5819,7 +5837,7 @@
         <v>96</v>
       </c>
       <c r="P25" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -6010,7 +6028,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6100,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="AT26">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU26">
         <v>1.77</v>
@@ -6288,10 +6306,10 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT27">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU27">
         <v>0.92</v>
@@ -6861,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT30">
         <v>1.36</v>
@@ -6965,7 +6983,7 @@
         <v>81</v>
       </c>
       <c r="P31" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7052,7 +7070,7 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT31">
         <v>1.82</v>
@@ -7246,7 +7264,7 @@
         <v>0.55</v>
       </c>
       <c r="AT32">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU32">
         <v>1.41</v>
@@ -7538,7 +7556,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7625,7 +7643,7 @@
         <v>1.5</v>
       </c>
       <c r="AS34">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT34">
         <v>1.58</v>
@@ -7729,7 +7747,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q35">
         <v>1</v>
@@ -7920,7 +7938,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -8111,7 +8129,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8302,7 +8320,7 @@
         <v>81</v>
       </c>
       <c r="P38" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -8392,7 +8410,7 @@
         <v>0.1</v>
       </c>
       <c r="AT38">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU38">
         <v>1.26</v>
@@ -8493,7 +8511,7 @@
         <v>81</v>
       </c>
       <c r="P39" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8583,7 +8601,7 @@
         <v>0.63</v>
       </c>
       <c r="AT39">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU39">
         <v>0.8</v>
@@ -8684,7 +8702,7 @@
         <v>106</v>
       </c>
       <c r="P40" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8771,7 +8789,7 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT40">
         <v>1.55</v>
@@ -9066,7 +9084,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9156,7 +9174,7 @@
         <v>1.36</v>
       </c>
       <c r="AT42">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU42">
         <v>2.12</v>
@@ -9257,7 +9275,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9344,7 +9362,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT43">
         <v>1.8</v>
@@ -9538,7 +9556,7 @@
         <v>1.73</v>
       </c>
       <c r="AT44">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU44">
         <v>1.88</v>
@@ -9726,10 +9744,10 @@
         <v>2</v>
       </c>
       <c r="AS45">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT45">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU45">
         <v>1.56</v>
@@ -9917,10 +9935,10 @@
         <v>1</v>
       </c>
       <c r="AS46">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT46">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU46">
         <v>1.21</v>
@@ -10108,7 +10126,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT47">
         <v>1.55</v>
@@ -10403,7 +10421,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10785,7 +10803,7 @@
         <v>94</v>
       </c>
       <c r="P51" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -10976,7 +10994,7 @@
         <v>113</v>
       </c>
       <c r="P52" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q52">
         <v>1</v>
@@ -11167,7 +11185,7 @@
         <v>81</v>
       </c>
       <c r="P53" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11445,7 +11463,7 @@
         <v>3</v>
       </c>
       <c r="AS54">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT54">
         <v>1.82</v>
@@ -11740,7 +11758,7 @@
         <v>116</v>
       </c>
       <c r="P56" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11931,7 +11949,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12021,7 +12039,7 @@
         <v>0.55</v>
       </c>
       <c r="AT57">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU57">
         <v>1.3</v>
@@ -12122,7 +12140,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q58">
         <v>11</v>
@@ -12209,7 +12227,7 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT58">
         <v>1.36</v>
@@ -12403,7 +12421,7 @@
         <v>2.31</v>
       </c>
       <c r="AT59">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU59">
         <v>2.22</v>
@@ -12594,7 +12612,7 @@
         <v>1.36</v>
       </c>
       <c r="AT60">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU60">
         <v>2.25</v>
@@ -12785,7 +12803,7 @@
         <v>1.73</v>
       </c>
       <c r="AT61">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU61">
         <v>1.88</v>
@@ -12973,10 +12991,10 @@
         <v>1.33</v>
       </c>
       <c r="AS62">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT62">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU62">
         <v>1.26</v>
@@ -13077,7 +13095,7 @@
         <v>81</v>
       </c>
       <c r="P63" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q63">
         <v>1</v>
@@ -13355,10 +13373,10 @@
         <v>3</v>
       </c>
       <c r="AS64">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT64">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU64">
         <v>1.16</v>
@@ -13459,7 +13477,7 @@
         <v>123</v>
       </c>
       <c r="P65" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q65">
         <v>6</v>
@@ -13546,7 +13564,7 @@
         <v>1</v>
       </c>
       <c r="AS65">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT65">
         <v>0.44</v>
@@ -13841,7 +13859,7 @@
         <v>125</v>
       </c>
       <c r="P67" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q67">
         <v>8</v>
@@ -14032,7 +14050,7 @@
         <v>126</v>
       </c>
       <c r="P68" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -14414,7 +14432,7 @@
         <v>127</v>
       </c>
       <c r="P70" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14605,7 +14623,7 @@
         <v>81</v>
       </c>
       <c r="P71" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -14883,7 +14901,7 @@
         <v>1.25</v>
       </c>
       <c r="AS72">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT72">
         <v>1.58</v>
@@ -15265,10 +15283,10 @@
         <v>1</v>
       </c>
       <c r="AS74">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT74">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU74">
         <v>1.78</v>
@@ -15459,7 +15477,7 @@
         <v>1.73</v>
       </c>
       <c r="AT75">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU75">
         <v>2.03</v>
@@ -15838,10 +15856,10 @@
         <v>0.8</v>
       </c>
       <c r="AS77">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT77">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU77">
         <v>1.26</v>
@@ -15942,7 +15960,7 @@
         <v>81</v>
       </c>
       <c r="P78" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16220,10 +16238,10 @@
         <v>2.4</v>
       </c>
       <c r="AS79">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT79">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU79">
         <v>1.71</v>
@@ -16411,7 +16429,7 @@
         <v>1.5</v>
       </c>
       <c r="AS80">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT80">
         <v>1.36</v>
@@ -16605,7 +16623,7 @@
         <v>1.23</v>
       </c>
       <c r="AT81">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU81">
         <v>1.09</v>
@@ -16706,7 +16724,7 @@
         <v>133</v>
       </c>
       <c r="P82" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -17279,7 +17297,7 @@
         <v>134</v>
       </c>
       <c r="P85" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17470,7 +17488,7 @@
         <v>135</v>
       </c>
       <c r="P86" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q86">
         <v>8</v>
@@ -17557,7 +17575,7 @@
         <v>0.6</v>
       </c>
       <c r="AS86">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT86">
         <v>0.92</v>
@@ -17852,7 +17870,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q88">
         <v>1</v>
@@ -18043,7 +18061,7 @@
         <v>137</v>
       </c>
       <c r="P89" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q89">
         <v>1</v>
@@ -18321,7 +18339,7 @@
         <v>0.67</v>
       </c>
       <c r="AS90">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT90">
         <v>0.44</v>
@@ -18425,7 +18443,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q91">
         <v>10</v>
@@ -18807,7 +18825,7 @@
         <v>140</v>
       </c>
       <c r="P93" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q93">
         <v>0</v>
@@ -18897,7 +18915,7 @@
         <v>1.5</v>
       </c>
       <c r="AT93">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU93">
         <v>1.48</v>
@@ -19088,7 +19106,7 @@
         <v>2.31</v>
       </c>
       <c r="AT94">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU94">
         <v>2.12</v>
@@ -19279,7 +19297,7 @@
         <v>1.23</v>
       </c>
       <c r="AT95">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU95">
         <v>1.05</v>
@@ -19467,10 +19485,10 @@
         <v>2.17</v>
       </c>
       <c r="AS96">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT96">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU96">
         <v>1.26</v>
@@ -19571,7 +19589,7 @@
         <v>144</v>
       </c>
       <c r="P97" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q97">
         <v>-1</v>
@@ -19658,10 +19676,10 @@
         <v>0.8</v>
       </c>
       <c r="AS97">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT97">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU97">
         <v>1.23</v>
@@ -19762,7 +19780,7 @@
         <v>145</v>
       </c>
       <c r="P98" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q98">
         <v>9</v>
@@ -19953,7 +19971,7 @@
         <v>146</v>
       </c>
       <c r="P99" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20144,7 +20162,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q100">
         <v>2</v>
@@ -20526,7 +20544,7 @@
         <v>81</v>
       </c>
       <c r="P102" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q102">
         <v>-1</v>
@@ -20717,7 +20735,7 @@
         <v>81</v>
       </c>
       <c r="P103" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q103">
         <v>-1</v>
@@ -20908,7 +20926,7 @@
         <v>147</v>
       </c>
       <c r="P104" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q104">
         <v>-1</v>
@@ -20995,7 +21013,7 @@
         <v>1.8</v>
       </c>
       <c r="AS104">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT104">
         <v>1.55</v>
@@ -21099,7 +21117,7 @@
         <v>81</v>
       </c>
       <c r="P105" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21186,7 +21204,7 @@
         <v>2.17</v>
       </c>
       <c r="AS105">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT105">
         <v>2</v>
@@ -21290,7 +21308,7 @@
         <v>148</v>
       </c>
       <c r="P106" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -21481,7 +21499,7 @@
         <v>149</v>
       </c>
       <c r="P107" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -21571,7 +21589,7 @@
         <v>1.67</v>
       </c>
       <c r="AT107">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU107">
         <v>1.49</v>
@@ -21762,7 +21780,7 @@
         <v>1.5</v>
       </c>
       <c r="AT108">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU108">
         <v>1.45</v>
@@ -21950,7 +21968,7 @@
         <v>0.57</v>
       </c>
       <c r="AS109">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT109">
         <v>0.44</v>
@@ -22245,7 +22263,7 @@
         <v>153</v>
       </c>
       <c r="P111" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q111">
         <v>0</v>
@@ -22332,7 +22350,7 @@
         <v>1.29</v>
       </c>
       <c r="AS111">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT111">
         <v>1.09</v>
@@ -22526,7 +22544,7 @@
         <v>1.23</v>
       </c>
       <c r="AT112">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU112">
         <v>1.05</v>
@@ -22627,7 +22645,7 @@
         <v>154</v>
       </c>
       <c r="P113" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -22714,10 +22732,10 @@
         <v>1.86</v>
       </c>
       <c r="AS113">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT113">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU113">
         <v>1.82</v>
@@ -22818,7 +22836,7 @@
         <v>121</v>
       </c>
       <c r="P114" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q114">
         <v>-1</v>
@@ -22905,7 +22923,7 @@
         <v>2.5</v>
       </c>
       <c r="AS114">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT114">
         <v>1.82</v>
@@ -23200,7 +23218,7 @@
         <v>156</v>
       </c>
       <c r="P116" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23287,7 +23305,7 @@
         <v>2.33</v>
       </c>
       <c r="AS116">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT116">
         <v>2</v>
@@ -23582,7 +23600,7 @@
         <v>81</v>
       </c>
       <c r="P118" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q118">
         <v>1</v>
@@ -23773,7 +23791,7 @@
         <v>157</v>
       </c>
       <c r="P119" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23964,7 +23982,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q120">
         <v>0</v>
@@ -24054,7 +24072,7 @@
         <v>0.1</v>
       </c>
       <c r="AT120">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU120">
         <v>1.07</v>
@@ -24346,7 +24364,7 @@
         <v>159</v>
       </c>
       <c r="P122" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q122">
         <v>12</v>
@@ -24436,7 +24454,7 @@
         <v>1.96</v>
       </c>
       <c r="AT122">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AU122">
         <v>2.06</v>
@@ -24627,7 +24645,7 @@
         <v>1.88</v>
       </c>
       <c r="AT123">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AU123">
         <v>2.03</v>
@@ -24728,7 +24746,7 @@
         <v>105</v>
       </c>
       <c r="P124" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q124">
         <v>11</v>
@@ -24815,10 +24833,10 @@
         <v>1.73</v>
       </c>
       <c r="AS124">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AT124">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AU124">
         <v>1.49</v>
@@ -24919,7 +24937,7 @@
         <v>160</v>
       </c>
       <c r="P125" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q125">
         <v>-1</v>
@@ -25006,10 +25024,10 @@
         <v>1.13</v>
       </c>
       <c r="AS125">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AT125">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="AU125">
         <v>1.39</v>
@@ -25200,7 +25218,7 @@
         <v>1.43</v>
       </c>
       <c r="AT126">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU126">
         <v>1.5</v>
@@ -25301,7 +25319,7 @@
         <v>160</v>
       </c>
       <c r="P127" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q127">
         <v>-1</v>
@@ -25391,7 +25409,7 @@
         <v>1.48</v>
       </c>
       <c r="AT127">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="AU127">
         <v>2.08</v>
@@ -25961,10 +25979,10 @@
         <v>1.69</v>
       </c>
       <c r="AS130">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AT130">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AU130">
         <v>1.28</v>
@@ -26152,10 +26170,10 @@
         <v>1.31</v>
       </c>
       <c r="AS131">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AT131">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AU131">
         <v>1.3</v>
@@ -26256,7 +26274,7 @@
         <v>164</v>
       </c>
       <c r="P132" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q132">
         <v>10</v>
@@ -26447,7 +26465,7 @@
         <v>165</v>
       </c>
       <c r="P133" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -26725,10 +26743,10 @@
         <v>1.93</v>
       </c>
       <c r="AS134">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AT134">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AU134">
         <v>1.99</v>
@@ -26829,7 +26847,7 @@
         <v>81</v>
       </c>
       <c r="P135" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -26916,10 +26934,10 @@
         <v>1.06</v>
       </c>
       <c r="AS135">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="AT135">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="AU135">
         <v>1.03</v>
@@ -27020,7 +27038,7 @@
         <v>107</v>
       </c>
       <c r="P136" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27107,10 +27125,10 @@
         <v>1.75</v>
       </c>
       <c r="AS136">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="AT136">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AU136">
         <v>1.57</v>
@@ -27298,7 +27316,7 @@
         <v>2.06</v>
       </c>
       <c r="AS137">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AT137">
         <v>1.88</v>
@@ -27683,7 +27701,7 @@
         <v>1.48</v>
       </c>
       <c r="AT139">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="AU139">
         <v>1.05</v>
@@ -27871,10 +27889,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AS140">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="AT140">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU140">
         <v>1.53</v>
@@ -28062,10 +28080,10 @@
         <v>1.56</v>
       </c>
       <c r="AS141">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AT141">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="AU141">
         <v>1.23</v>
@@ -28253,10 +28271,10 @@
         <v>1.41</v>
       </c>
       <c r="AS142">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AT142">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AU142">
         <v>1.44</v>
@@ -28357,7 +28375,7 @@
         <v>167</v>
       </c>
       <c r="P143" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q143">
         <v>11</v>
@@ -28447,7 +28465,7 @@
         <v>1.96</v>
       </c>
       <c r="AT143">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AU143">
         <v>2.04</v>
@@ -28548,7 +28566,7 @@
         <v>168</v>
       </c>
       <c r="P144" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q144">
         <v>4</v>
@@ -28635,10 +28653,10 @@
         <v>1.47</v>
       </c>
       <c r="AS144">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AT144">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="AU144">
         <v>1.25</v>
@@ -28829,7 +28847,7 @@
         <v>1.96</v>
       </c>
       <c r="AT145">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AU145">
         <v>2.06</v>
@@ -28930,7 +28948,7 @@
         <v>81</v>
       </c>
       <c r="P146" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29017,10 +29035,10 @@
         <v>1.83</v>
       </c>
       <c r="AS146">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AT146">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AU146">
         <v>1.95</v>
@@ -29211,7 +29229,7 @@
         <v>1.88</v>
       </c>
       <c r="AT147">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AU147">
         <v>1.72</v>
@@ -29402,7 +29420,7 @@
         <v>1.48</v>
       </c>
       <c r="AT148">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AU148">
         <v>2.1</v>
@@ -29503,7 +29521,7 @@
         <v>170</v>
       </c>
       <c r="P149" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -29590,10 +29608,10 @@
         <v>1.06</v>
       </c>
       <c r="AS149">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="AT149">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU149">
         <v>1.05</v>
@@ -29694,7 +29712,7 @@
         <v>171</v>
       </c>
       <c r="P150" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q150">
         <v>7</v>
@@ -29972,10 +29990,10 @@
         <v>1.32</v>
       </c>
       <c r="AS151">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="AT151">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AU151">
         <v>1.54</v>
@@ -30163,10 +30181,10 @@
         <v>1.37</v>
       </c>
       <c r="AS152">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AT152">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AU152">
         <v>1.77</v>
@@ -30267,7 +30285,7 @@
         <v>81</v>
       </c>
       <c r="P153" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q153">
         <v>-1</v>
@@ -30354,7 +30372,7 @@
         <v>1.89</v>
       </c>
       <c r="AS153">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AT153">
         <v>1.96</v>
@@ -30458,7 +30476,7 @@
         <v>81</v>
       </c>
       <c r="P154" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q154">
         <v>2</v>
@@ -30545,7 +30563,7 @@
         <v>1.32</v>
       </c>
       <c r="AS154">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AT154">
         <v>1.48</v>
@@ -30736,7 +30754,7 @@
         <v>1.37</v>
       </c>
       <c r="AS155">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="AT155">
         <v>1.48</v>
@@ -30840,7 +30858,7 @@
         <v>173</v>
       </c>
       <c r="P156" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q156">
         <v>3</v>
@@ -30930,7 +30948,7 @@
         <v>1.43</v>
       </c>
       <c r="AT156">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="AU156">
         <v>1.55</v>
@@ -31031,7 +31049,7 @@
         <v>81</v>
       </c>
       <c r="P157" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q157">
         <v>-1</v>
@@ -31118,7 +31136,7 @@
         <v>1.89</v>
       </c>
       <c r="AS157">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AT157">
         <v>1.88</v>
@@ -31309,10 +31327,10 @@
         <v>1.53</v>
       </c>
       <c r="AS158">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AT158">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="AU158">
         <v>1.79</v>
@@ -31503,7 +31521,7 @@
         <v>1.96</v>
       </c>
       <c r="AT159">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AU159">
         <v>2.04</v>
@@ -31694,7 +31712,7 @@
         <v>1.48</v>
       </c>
       <c r="AT160">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="AU160">
         <v>1.24</v>
@@ -31885,7 +31903,7 @@
         <v>1.48</v>
       </c>
       <c r="AT161">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU161">
         <v>2.09</v>
@@ -31986,7 +32004,7 @@
         <v>177</v>
       </c>
       <c r="P162" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -32076,7 +32094,7 @@
         <v>1.43</v>
       </c>
       <c r="AT162">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AU162">
         <v>1.63</v>
@@ -32264,10 +32282,10 @@
         <v>1.3</v>
       </c>
       <c r="AS163">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AT163">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AU163">
         <v>1.23</v>
@@ -32368,7 +32386,7 @@
         <v>178</v>
       </c>
       <c r="P164" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32458,7 +32476,7 @@
         <v>1.88</v>
       </c>
       <c r="AT164">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="AU164">
         <v>1.57</v>
@@ -32646,10 +32664,10 @@
         <v>1.65</v>
       </c>
       <c r="AS165">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AT165">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AU165">
         <v>1.79</v>
@@ -32750,7 +32768,7 @@
         <v>179</v>
       </c>
       <c r="P166" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q166">
         <v>-1</v>
@@ -32837,10 +32855,10 @@
         <v>1.81</v>
       </c>
       <c r="AS166">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AT166">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AU166">
         <v>1.23</v>
@@ -32941,7 +32959,7 @@
         <v>180</v>
       </c>
       <c r="P167" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33028,7 +33046,7 @@
         <v>2</v>
       </c>
       <c r="AS167">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="AT167">
         <v>1.96</v>
@@ -33132,7 +33150,7 @@
         <v>81</v>
       </c>
       <c r="P168" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q168">
         <v>7</v>
@@ -33219,7 +33237,7 @@
         <v>1.48</v>
       </c>
       <c r="AS168">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AT168">
         <v>1.48</v>
@@ -33323,7 +33341,7 @@
         <v>181</v>
       </c>
       <c r="P169" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q169">
         <v>7</v>
@@ -33410,10 +33428,10 @@
         <v>0.4</v>
       </c>
       <c r="AS169">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AT169">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="AU169">
         <v>1.41</v>
@@ -33601,7 +33619,7 @@
         <v>1.52</v>
       </c>
       <c r="AS170">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="AT170">
         <v>1.43</v>
@@ -33705,7 +33723,7 @@
         <v>182</v>
       </c>
       <c r="P171" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -33792,7 +33810,7 @@
         <v>1.86</v>
       </c>
       <c r="AS171">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AT171">
         <v>1.88</v>
@@ -33983,10 +34001,10 @@
         <v>1.24</v>
       </c>
       <c r="AS172">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AT172">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AU172">
         <v>1.37</v>
@@ -34174,10 +34192,10 @@
         <v>1.68</v>
       </c>
       <c r="AS173">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AT173">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AU173">
         <v>1.23</v>
@@ -34278,7 +34296,7 @@
         <v>81</v>
       </c>
       <c r="P174" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -34365,7 +34383,7 @@
         <v>1.91</v>
       </c>
       <c r="AS174">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AT174">
         <v>1.88</v>
@@ -34556,10 +34574,10 @@
         <v>1.24</v>
       </c>
       <c r="AS175">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="AT175">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AU175">
         <v>1.47</v>
@@ -34660,7 +34678,7 @@
         <v>184</v>
       </c>
       <c r="P176" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q176">
         <v>8</v>
@@ -34747,7 +34765,7 @@
         <v>1.45</v>
       </c>
       <c r="AS176">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AT176">
         <v>1.43</v>
@@ -34938,7 +34956,7 @@
         <v>1.95</v>
       </c>
       <c r="AS177">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AT177">
         <v>1.96</v>
@@ -35129,10 +35147,10 @@
         <v>1.77</v>
       </c>
       <c r="AS178">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="AT178">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AU178">
         <v>1.43</v>
@@ -35320,7 +35338,7 @@
         <v>1.43</v>
       </c>
       <c r="AS179">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="AT179">
         <v>1.48</v>
@@ -35615,7 +35633,7 @@
         <v>185</v>
       </c>
       <c r="P181" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q181">
         <v>-1</v>
@@ -35757,6 +35775,961 @@
       </c>
       <c r="BK181">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:63">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>5103520</v>
+      </c>
+      <c r="C182" t="s">
+        <v>63</v>
+      </c>
+      <c r="D182" t="s">
+        <v>64</v>
+      </c>
+      <c r="E182" s="2">
+        <v>44996.4375</v>
+      </c>
+      <c r="F182">
+        <v>9</v>
+      </c>
+      <c r="G182" t="s">
+        <v>75</v>
+      </c>
+      <c r="H182" t="s">
+        <v>80</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182">
+        <v>2</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>2</v>
+      </c>
+      <c r="O182" t="s">
+        <v>186</v>
+      </c>
+      <c r="P182" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q182">
+        <v>2</v>
+      </c>
+      <c r="R182">
+        <v>0</v>
+      </c>
+      <c r="S182">
+        <v>2</v>
+      </c>
+      <c r="T182">
+        <v>1.91</v>
+      </c>
+      <c r="U182">
+        <v>2.63</v>
+      </c>
+      <c r="V182">
+        <v>5</v>
+      </c>
+      <c r="W182">
+        <v>0</v>
+      </c>
+      <c r="X182">
+        <v>0</v>
+      </c>
+      <c r="Y182">
+        <v>0</v>
+      </c>
+      <c r="Z182">
+        <v>0</v>
+      </c>
+      <c r="AA182">
+        <v>0</v>
+      </c>
+      <c r="AB182">
+        <v>0</v>
+      </c>
+      <c r="AC182">
+        <v>1.5</v>
+      </c>
+      <c r="AD182">
+        <v>3.75</v>
+      </c>
+      <c r="AE182">
+        <v>5.5</v>
+      </c>
+      <c r="AF182">
+        <v>0</v>
+      </c>
+      <c r="AG182">
+        <v>0</v>
+      </c>
+      <c r="AH182">
+        <v>0</v>
+      </c>
+      <c r="AI182">
+        <v>0</v>
+      </c>
+      <c r="AJ182">
+        <v>1.36</v>
+      </c>
+      <c r="AK182">
+        <v>3.1</v>
+      </c>
+      <c r="AL182">
+        <v>0</v>
+      </c>
+      <c r="AM182">
+        <v>0</v>
+      </c>
+      <c r="AN182">
+        <v>0</v>
+      </c>
+      <c r="AO182">
+        <v>0</v>
+      </c>
+      <c r="AP182">
+        <v>0</v>
+      </c>
+      <c r="AQ182">
+        <v>1.23</v>
+      </c>
+      <c r="AR182">
+        <v>0.45</v>
+      </c>
+      <c r="AS182">
+        <v>1.3</v>
+      </c>
+      <c r="AT182">
+        <v>0.43</v>
+      </c>
+      <c r="AU182">
+        <v>1.4</v>
+      </c>
+      <c r="AV182">
+        <v>1.21</v>
+      </c>
+      <c r="AW182">
+        <v>2.61</v>
+      </c>
+      <c r="AX182">
+        <v>0</v>
+      </c>
+      <c r="AY182">
+        <v>0</v>
+      </c>
+      <c r="AZ182">
+        <v>0</v>
+      </c>
+      <c r="BA182">
+        <v>0</v>
+      </c>
+      <c r="BB182">
+        <v>0</v>
+      </c>
+      <c r="BC182">
+        <v>0</v>
+      </c>
+      <c r="BD182">
+        <v>0</v>
+      </c>
+      <c r="BE182">
+        <v>0</v>
+      </c>
+      <c r="BF182">
+        <v>7</v>
+      </c>
+      <c r="BG182">
+        <v>3</v>
+      </c>
+      <c r="BH182">
+        <v>5</v>
+      </c>
+      <c r="BI182">
+        <v>0</v>
+      </c>
+      <c r="BJ182">
+        <v>12</v>
+      </c>
+      <c r="BK182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:63">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>5103464</v>
+      </c>
+      <c r="C183" t="s">
+        <v>63</v>
+      </c>
+      <c r="D183" t="s">
+        <v>64</v>
+      </c>
+      <c r="E183" s="2">
+        <v>44996.4375</v>
+      </c>
+      <c r="F183">
+        <v>9</v>
+      </c>
+      <c r="G183" t="s">
+        <v>65</v>
+      </c>
+      <c r="H183" t="s">
+        <v>78</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183">
+        <v>1</v>
+      </c>
+      <c r="O183" t="s">
+        <v>81</v>
+      </c>
+      <c r="P183" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q183">
+        <v>9</v>
+      </c>
+      <c r="R183">
+        <v>3</v>
+      </c>
+      <c r="S183">
+        <v>12</v>
+      </c>
+      <c r="T183">
+        <v>1.62</v>
+      </c>
+      <c r="U183">
+        <v>2.5</v>
+      </c>
+      <c r="V183">
+        <v>10</v>
+      </c>
+      <c r="W183">
+        <v>0</v>
+      </c>
+      <c r="X183">
+        <v>0</v>
+      </c>
+      <c r="Y183">
+        <v>0</v>
+      </c>
+      <c r="Z183">
+        <v>0</v>
+      </c>
+      <c r="AA183">
+        <v>0</v>
+      </c>
+      <c r="AB183">
+        <v>0</v>
+      </c>
+      <c r="AC183">
+        <v>1.2</v>
+      </c>
+      <c r="AD183">
+        <v>6</v>
+      </c>
+      <c r="AE183">
+        <v>10</v>
+      </c>
+      <c r="AF183">
+        <v>0</v>
+      </c>
+      <c r="AG183">
+        <v>0</v>
+      </c>
+      <c r="AH183">
+        <v>0</v>
+      </c>
+      <c r="AI183">
+        <v>0</v>
+      </c>
+      <c r="AJ183">
+        <v>1.7</v>
+      </c>
+      <c r="AK183">
+        <v>2.1</v>
+      </c>
+      <c r="AL183">
+        <v>2.15</v>
+      </c>
+      <c r="AM183">
+        <v>1.61</v>
+      </c>
+      <c r="AN183">
+        <v>0</v>
+      </c>
+      <c r="AO183">
+        <v>0</v>
+      </c>
+      <c r="AP183">
+        <v>3.75</v>
+      </c>
+      <c r="AQ183">
+        <v>1.65</v>
+      </c>
+      <c r="AR183">
+        <v>1.13</v>
+      </c>
+      <c r="AS183">
+        <v>1.58</v>
+      </c>
+      <c r="AT183">
+        <v>1.21</v>
+      </c>
+      <c r="AU183">
+        <v>1.39</v>
+      </c>
+      <c r="AV183">
+        <v>1.26</v>
+      </c>
+      <c r="AW183">
+        <v>2.65</v>
+      </c>
+      <c r="AX183">
+        <v>0</v>
+      </c>
+      <c r="AY183">
+        <v>0</v>
+      </c>
+      <c r="AZ183">
+        <v>0</v>
+      </c>
+      <c r="BA183">
+        <v>0</v>
+      </c>
+      <c r="BB183">
+        <v>0</v>
+      </c>
+      <c r="BC183">
+        <v>0</v>
+      </c>
+      <c r="BD183">
+        <v>0</v>
+      </c>
+      <c r="BE183">
+        <v>0</v>
+      </c>
+      <c r="BF183">
+        <v>6</v>
+      </c>
+      <c r="BG183">
+        <v>2</v>
+      </c>
+      <c r="BH183">
+        <v>11</v>
+      </c>
+      <c r="BI183">
+        <v>6</v>
+      </c>
+      <c r="BJ183">
+        <v>17</v>
+      </c>
+      <c r="BK183">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:63">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>5103462</v>
+      </c>
+      <c r="C184" t="s">
+        <v>63</v>
+      </c>
+      <c r="D184" t="s">
+        <v>64</v>
+      </c>
+      <c r="E184" s="2">
+        <v>44996.4375</v>
+      </c>
+      <c r="F184">
+        <v>9</v>
+      </c>
+      <c r="G184" t="s">
+        <v>66</v>
+      </c>
+      <c r="H184" t="s">
+        <v>77</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>1</v>
+      </c>
+      <c r="O184" t="s">
+        <v>187</v>
+      </c>
+      <c r="P184" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q184">
+        <v>8</v>
+      </c>
+      <c r="R184">
+        <v>3</v>
+      </c>
+      <c r="S184">
+        <v>11</v>
+      </c>
+      <c r="T184">
+        <v>0</v>
+      </c>
+      <c r="U184">
+        <v>0</v>
+      </c>
+      <c r="V184">
+        <v>0</v>
+      </c>
+      <c r="W184">
+        <v>0</v>
+      </c>
+      <c r="X184">
+        <v>0</v>
+      </c>
+      <c r="Y184">
+        <v>0</v>
+      </c>
+      <c r="Z184">
+        <v>0</v>
+      </c>
+      <c r="AA184">
+        <v>0</v>
+      </c>
+      <c r="AB184">
+        <v>0</v>
+      </c>
+      <c r="AC184">
+        <v>1.59</v>
+      </c>
+      <c r="AD184">
+        <v>3.11</v>
+      </c>
+      <c r="AE184">
+        <v>5.05</v>
+      </c>
+      <c r="AF184">
+        <v>0</v>
+      </c>
+      <c r="AG184">
+        <v>0</v>
+      </c>
+      <c r="AH184">
+        <v>0</v>
+      </c>
+      <c r="AI184">
+        <v>0</v>
+      </c>
+      <c r="AJ184">
+        <v>2.37</v>
+      </c>
+      <c r="AK184">
+        <v>1.48</v>
+      </c>
+      <c r="AL184">
+        <v>0</v>
+      </c>
+      <c r="AM184">
+        <v>0</v>
+      </c>
+      <c r="AN184">
+        <v>0</v>
+      </c>
+      <c r="AO184">
+        <v>0</v>
+      </c>
+      <c r="AP184">
+        <v>0</v>
+      </c>
+      <c r="AQ184">
+        <v>1.7</v>
+      </c>
+      <c r="AR184">
+        <v>1.3</v>
+      </c>
+      <c r="AS184">
+        <v>1.75</v>
+      </c>
+      <c r="AT184">
+        <v>1.25</v>
+      </c>
+      <c r="AU184">
+        <v>1.75</v>
+      </c>
+      <c r="AV184">
+        <v>1.56</v>
+      </c>
+      <c r="AW184">
+        <v>3.31</v>
+      </c>
+      <c r="AX184">
+        <v>0</v>
+      </c>
+      <c r="AY184">
+        <v>0</v>
+      </c>
+      <c r="AZ184">
+        <v>0</v>
+      </c>
+      <c r="BA184">
+        <v>0</v>
+      </c>
+      <c r="BB184">
+        <v>0</v>
+      </c>
+      <c r="BC184">
+        <v>0</v>
+      </c>
+      <c r="BD184">
+        <v>0</v>
+      </c>
+      <c r="BE184">
+        <v>0</v>
+      </c>
+      <c r="BF184">
+        <v>2</v>
+      </c>
+      <c r="BG184">
+        <v>0</v>
+      </c>
+      <c r="BH184">
+        <v>0</v>
+      </c>
+      <c r="BI184">
+        <v>0</v>
+      </c>
+      <c r="BJ184">
+        <v>2</v>
+      </c>
+      <c r="BK184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:63">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>5103465</v>
+      </c>
+      <c r="C185" t="s">
+        <v>63</v>
+      </c>
+      <c r="D185" t="s">
+        <v>64</v>
+      </c>
+      <c r="E185" s="2">
+        <v>44997.4375</v>
+      </c>
+      <c r="F185">
+        <v>9</v>
+      </c>
+      <c r="G185" t="s">
+        <v>71</v>
+      </c>
+      <c r="H185" t="s">
+        <v>72</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185">
+        <v>1</v>
+      </c>
+      <c r="O185" t="s">
+        <v>81</v>
+      </c>
+      <c r="P185" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q185">
+        <v>5</v>
+      </c>
+      <c r="R185">
+        <v>1</v>
+      </c>
+      <c r="S185">
+        <v>6</v>
+      </c>
+      <c r="T185">
+        <v>3.2</v>
+      </c>
+      <c r="U185">
+        <v>2</v>
+      </c>
+      <c r="V185">
+        <v>3.5</v>
+      </c>
+      <c r="W185">
+        <v>0</v>
+      </c>
+      <c r="X185">
+        <v>0</v>
+      </c>
+      <c r="Y185">
+        <v>3</v>
+      </c>
+      <c r="Z185">
+        <v>1.3</v>
+      </c>
+      <c r="AA185">
+        <v>7.3</v>
+      </c>
+      <c r="AB185">
+        <v>1.06</v>
+      </c>
+      <c r="AC185">
+        <v>2.38</v>
+      </c>
+      <c r="AD185">
+        <v>3.2</v>
+      </c>
+      <c r="AE185">
+        <v>2.63</v>
+      </c>
+      <c r="AF185">
+        <v>0</v>
+      </c>
+      <c r="AG185">
+        <v>0</v>
+      </c>
+      <c r="AH185">
+        <v>1.35</v>
+      </c>
+      <c r="AI185">
+        <v>2.78</v>
+      </c>
+      <c r="AJ185">
+        <v>2.25</v>
+      </c>
+      <c r="AK185">
+        <v>1.62</v>
+      </c>
+      <c r="AL185">
+        <v>0</v>
+      </c>
+      <c r="AM185">
+        <v>0</v>
+      </c>
+      <c r="AN185">
+        <v>0</v>
+      </c>
+      <c r="AO185">
+        <v>0</v>
+      </c>
+      <c r="AP185">
+        <v>0</v>
+      </c>
+      <c r="AQ185">
+        <v>1.65</v>
+      </c>
+      <c r="AR185">
+        <v>1.61</v>
+      </c>
+      <c r="AS185">
+        <v>1.58</v>
+      </c>
+      <c r="AT185">
+        <v>1.67</v>
+      </c>
+      <c r="AU185">
+        <v>1.5</v>
+      </c>
+      <c r="AV185">
+        <v>1.66</v>
+      </c>
+      <c r="AW185">
+        <v>3.16</v>
+      </c>
+      <c r="AX185">
+        <v>0</v>
+      </c>
+      <c r="AY185">
+        <v>0</v>
+      </c>
+      <c r="AZ185">
+        <v>0</v>
+      </c>
+      <c r="BA185">
+        <v>0</v>
+      </c>
+      <c r="BB185">
+        <v>0</v>
+      </c>
+      <c r="BC185">
+        <v>0</v>
+      </c>
+      <c r="BD185">
+        <v>0</v>
+      </c>
+      <c r="BE185">
+        <v>0</v>
+      </c>
+      <c r="BF185">
+        <v>4</v>
+      </c>
+      <c r="BG185">
+        <v>2</v>
+      </c>
+      <c r="BH185">
+        <v>7</v>
+      </c>
+      <c r="BI185">
+        <v>5</v>
+      </c>
+      <c r="BJ185">
+        <v>11</v>
+      </c>
+      <c r="BK185">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:63">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>5103521</v>
+      </c>
+      <c r="C186" t="s">
+        <v>63</v>
+      </c>
+      <c r="D186" t="s">
+        <v>64</v>
+      </c>
+      <c r="E186" s="2">
+        <v>44997.4375</v>
+      </c>
+      <c r="F186">
+        <v>9</v>
+      </c>
+      <c r="G186" t="s">
+        <v>76</v>
+      </c>
+      <c r="H186" t="s">
+        <v>70</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186">
+        <v>2</v>
+      </c>
+      <c r="L186">
+        <v>3</v>
+      </c>
+      <c r="M186">
+        <v>1</v>
+      </c>
+      <c r="N186">
+        <v>4</v>
+      </c>
+      <c r="O186" t="s">
+        <v>188</v>
+      </c>
+      <c r="P186" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q186">
+        <v>3</v>
+      </c>
+      <c r="R186">
+        <v>3</v>
+      </c>
+      <c r="S186">
+        <v>6</v>
+      </c>
+      <c r="T186">
+        <v>2.88</v>
+      </c>
+      <c r="U186">
+        <v>1.95</v>
+      </c>
+      <c r="V186">
+        <v>4</v>
+      </c>
+      <c r="W186">
+        <v>0</v>
+      </c>
+      <c r="X186">
+        <v>0</v>
+      </c>
+      <c r="Y186">
+        <v>2.97</v>
+      </c>
+      <c r="Z186">
+        <v>1.31</v>
+      </c>
+      <c r="AA186">
+        <v>7.3</v>
+      </c>
+      <c r="AB186">
+        <v>1.06</v>
+      </c>
+      <c r="AC186">
+        <v>2.1</v>
+      </c>
+      <c r="AD186">
+        <v>3</v>
+      </c>
+      <c r="AE186">
+        <v>3.25</v>
+      </c>
+      <c r="AF186">
+        <v>0</v>
+      </c>
+      <c r="AG186">
+        <v>0</v>
+      </c>
+      <c r="AH186">
+        <v>1.34</v>
+      </c>
+      <c r="AI186">
+        <v>2.82</v>
+      </c>
+      <c r="AJ186">
+        <v>2.3</v>
+      </c>
+      <c r="AK186">
+        <v>1.6</v>
+      </c>
+      <c r="AL186">
+        <v>1.87</v>
+      </c>
+      <c r="AM186">
+        <v>1.82</v>
+      </c>
+      <c r="AN186">
+        <v>1.31</v>
+      </c>
+      <c r="AO186">
+        <v>1.34</v>
+      </c>
+      <c r="AP186">
+        <v>1.62</v>
+      </c>
+      <c r="AQ186">
+        <v>1.18</v>
+      </c>
+      <c r="AR186">
+        <v>1.05</v>
+      </c>
+      <c r="AS186">
+        <v>1.26</v>
+      </c>
+      <c r="AT186">
+        <v>1</v>
+      </c>
+      <c r="AU186">
+        <v>1.5</v>
+      </c>
+      <c r="AV186">
+        <v>1.61</v>
+      </c>
+      <c r="AW186">
+        <v>3.11</v>
+      </c>
+      <c r="AX186">
+        <v>0</v>
+      </c>
+      <c r="AY186">
+        <v>0</v>
+      </c>
+      <c r="AZ186">
+        <v>0</v>
+      </c>
+      <c r="BA186">
+        <v>0</v>
+      </c>
+      <c r="BB186">
+        <v>0</v>
+      </c>
+      <c r="BC186">
+        <v>0</v>
+      </c>
+      <c r="BD186">
+        <v>0</v>
+      </c>
+      <c r="BE186">
+        <v>0</v>
+      </c>
+      <c r="BF186">
+        <v>6</v>
+      </c>
+      <c r="BG186">
+        <v>4</v>
+      </c>
+      <c r="BH186">
+        <v>1</v>
+      </c>
+      <c r="BI186">
+        <v>7</v>
+      </c>
+      <c r="BJ186">
+        <v>7</v>
+      </c>
+      <c r="BK186">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Cyprus Second Division_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Cyprus Second Division_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK186"/>
+  <dimension ref="A1:BK191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>1.23</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT7" t="n">
         <v>0.6899999999999999</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT11" t="n">
         <v>0.6899999999999999</v>
@@ -2933,7 +2933,7 @@
         <v>1.5</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT16" t="n">
         <v>1.67</v>
@@ -4151,7 +4151,7 @@
         <v>1.69</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU18" t="n">
         <v>2.15</v>
@@ -4963,7 +4963,7 @@
         <v>1.5</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT23" t="n">
         <v>1.77</v>
@@ -6178,7 +6178,7 @@
         <v>1.5</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT28" t="n">
         <v>0.44</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU29" t="n">
         <v>1.88</v>
@@ -6587,7 +6587,7 @@
         <v>1.64</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU30" t="n">
         <v>1.87</v>
@@ -6790,7 +6790,7 @@
         <v>1.23</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU31" t="n">
         <v>0</v>
@@ -6990,7 +6990,7 @@
         <v>1.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT32" t="n">
         <v>0.6899999999999999</v>
@@ -8005,10 +8005,10 @@
         <v>1.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU37" t="n">
         <v>1.35</v>
@@ -8617,7 +8617,7 @@
         <v>1.62</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU40" t="n">
         <v>1.09</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT42" t="n">
         <v>1.77</v>
@@ -9426,7 +9426,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT44" t="n">
         <v>1.67</v>
@@ -10038,7 +10038,7 @@
         <v>1.23</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU47" t="n">
         <v>1.26</v>
@@ -10444,7 +10444,7 @@
         <v>2.31</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU49" t="n">
         <v>1.85</v>
@@ -10647,7 +10647,7 @@
         <v>0.63</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU50" t="n">
         <v>1.07</v>
@@ -11253,7 +11253,7 @@
         <v>2</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT53" t="n">
         <v>2</v>
@@ -11459,7 +11459,7 @@
         <v>1.62</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU54" t="n">
         <v>0.96</v>
@@ -11662,7 +11662,7 @@
         <v>1.67</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU55" t="n">
         <v>1.76</v>
@@ -12065,7 +12065,7 @@
         <v>3</v>
       </c>
       <c r="AS57" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT57" t="n">
         <v>1.46</v>
@@ -12271,7 +12271,7 @@
         <v>1.69</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU58" t="n">
         <v>1.71</v>
@@ -12674,7 +12674,7 @@
         <v>3</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT60" t="n">
         <v>1.46</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT61" t="n">
         <v>0.6899999999999999</v>
@@ -13286,7 +13286,7 @@
         <v>1.23</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU63" t="n">
         <v>1.26</v>
@@ -13895,7 +13895,7 @@
         <v>1</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU66" t="n">
         <v>2.34</v>
@@ -14095,7 +14095,7 @@
         <v>0.75</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT67" t="n">
         <v>0.92</v>
@@ -14298,7 +14298,7 @@
         <v>2.33</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT68" t="n">
         <v>2</v>
@@ -14910,7 +14910,7 @@
         <v>0.1</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU71" t="n">
         <v>1.28</v>
@@ -15316,7 +15316,7 @@
         <v>1.67</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU73" t="n">
         <v>1.64</v>
@@ -15719,7 +15719,7 @@
         <v>2.6</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT75" t="n">
         <v>1.77</v>
@@ -16328,10 +16328,10 @@
         <v>1.2</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU78" t="n">
         <v>2.25</v>
@@ -16737,7 +16737,7 @@
         <v>1.62</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU80" t="n">
         <v>1.08</v>
@@ -17343,7 +17343,7 @@
         <v>1.75</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT83" t="n">
         <v>1.8</v>
@@ -17749,10 +17749,10 @@
         <v>1.5</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU85" t="n">
         <v>1.26</v>
@@ -18158,7 +18158,7 @@
         <v>1.67</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU87" t="n">
         <v>1.53</v>
@@ -18361,7 +18361,7 @@
         <v>0.1</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU88" t="n">
         <v>1.13</v>
@@ -18967,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT91" t="n">
         <v>0.92</v>
@@ -19170,10 +19170,10 @@
         <v>1.5</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU92" t="n">
         <v>2.03</v>
@@ -20591,10 +20591,10 @@
         <v>1.2</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU99" t="n">
         <v>1.33</v>
@@ -20797,7 +20797,7 @@
         <v>0.1</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU100" t="n">
         <v>1.13</v>
@@ -21200,10 +21200,10 @@
         <v>2.4</v>
       </c>
       <c r="AS102" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU102" t="n">
         <v>1.36</v>
@@ -21609,7 +21609,7 @@
         <v>1.5</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU104" t="n">
         <v>1.53</v>
@@ -22012,7 +22012,7 @@
         <v>2.29</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT106" t="n">
         <v>2</v>
@@ -23030,7 +23030,7 @@
         <v>1.23</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU111" t="n">
         <v>1.26</v>
@@ -23639,7 +23639,7 @@
         <v>1.5</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU114" t="n">
         <v>1.53</v>
@@ -23839,10 +23839,10 @@
         <v>2</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU115" t="n">
         <v>2.03</v>
@@ -24448,10 +24448,10 @@
         <v>1.33</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU118" t="n">
         <v>1.36</v>
@@ -24654,7 +24654,7 @@
         <v>0.63</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU119" t="n">
         <v>0.99</v>
@@ -25057,7 +25057,7 @@
         <v>2</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT121" t="n">
         <v>1.58</v>
@@ -25260,10 +25260,10 @@
         <v>1.53</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AU122" t="n">
         <v>2.06</v>
@@ -25463,10 +25463,10 @@
         <v>1.47</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AU123" t="n">
         <v>2.03</v>
@@ -25666,7 +25666,7 @@
         <v>1.73</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="AT124" t="n">
         <v>1.58</v>
@@ -25872,7 +25872,7 @@
         <v>1.26</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AU125" t="n">
         <v>1.39</v>
@@ -26072,10 +26072,10 @@
         <v>0.87</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="AT126" t="n">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AU126" t="n">
         <v>1.5</v>
@@ -26275,7 +26275,7 @@
         <v>0.27</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="AT127" t="n">
         <v>0.43</v>
@@ -26681,10 +26681,10 @@
         <v>2.06</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="AU129" t="n">
         <v>1.92</v>
@@ -26884,7 +26884,7 @@
         <v>1.69</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AT130" t="n">
         <v>1.58</v>
@@ -27087,7 +27087,7 @@
         <v>1.31</v>
       </c>
       <c r="AS131" t="n">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AT131" t="n">
         <v>1.26</v>
@@ -27290,7 +27290,7 @@
         <v>1.44</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="AT132" t="n">
         <v>1.48</v>
@@ -27496,7 +27496,7 @@
         <v>0.53</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="AU133" t="n">
         <v>1.17</v>
@@ -27696,10 +27696,10 @@
         <v>1.93</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AU134" t="n">
         <v>1.99</v>
@@ -27902,7 +27902,7 @@
         <v>0.43</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AU135" t="n">
         <v>1.03</v>
@@ -28105,7 +28105,7 @@
         <v>1.67</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="AU136" t="n">
         <v>1.57</v>
@@ -28305,10 +28305,10 @@
         <v>2.06</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="AU137" t="n">
         <v>1.77</v>
@@ -28508,10 +28508,10 @@
         <v>1.47</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="AU138" t="n">
         <v>1.55</v>
@@ -28914,10 +28914,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AT140" t="n">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AU140" t="n">
         <v>1.53</v>
@@ -29320,10 +29320,10 @@
         <v>1.41</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AU142" t="n">
         <v>1.44</v>
@@ -29523,10 +29523,10 @@
         <v>1.35</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AU143" t="n">
         <v>2.04</v>
@@ -29726,7 +29726,7 @@
         <v>1.47</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AT144" t="n">
         <v>1.67</v>
@@ -29929,10 +29929,10 @@
         <v>1.94</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AU145" t="n">
         <v>2.06</v>
@@ -30132,7 +30132,7 @@
         <v>1.83</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT146" t="n">
         <v>1.58</v>
@@ -30335,10 +30335,10 @@
         <v>1.78</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="AU147" t="n">
         <v>1.72</v>
@@ -30538,7 +30538,7 @@
         <v>1.24</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="AT148" t="n">
         <v>1.26</v>
@@ -30744,7 +30744,7 @@
         <v>0.43</v>
       </c>
       <c r="AT149" t="n">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AU149" t="n">
         <v>1.05</v>
@@ -30947,7 +30947,7 @@
         <v>1.48</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="AU150" t="n">
         <v>1.12</v>
@@ -31150,7 +31150,7 @@
         <v>1.67</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AU151" t="n">
         <v>1.54</v>
@@ -31350,10 +31350,10 @@
         <v>1.37</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AU152" t="n">
         <v>1.77</v>
@@ -31553,10 +31553,10 @@
         <v>1.89</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="AU153" t="n">
         <v>1.37</v>
@@ -31959,10 +31959,10 @@
         <v>1.37</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="AU155" t="n">
         <v>1.47</v>
@@ -32162,7 +32162,7 @@
         <v>0.42</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="AT156" t="n">
         <v>0.43</v>
@@ -32368,7 +32368,7 @@
         <v>1.58</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="AU157" t="n">
         <v>1.23</v>
@@ -32568,7 +32568,7 @@
         <v>1.53</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AT158" t="n">
         <v>1.67</v>
@@ -32771,7 +32771,7 @@
         <v>1.8</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="AT159" t="n">
         <v>1.58</v>
@@ -32977,7 +32977,7 @@
         <v>1.48</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AU160" t="n">
         <v>1.24</v>
@@ -33177,10 +33177,10 @@
         <v>1.16</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="AT161" t="n">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AU161" t="n">
         <v>2.09</v>
@@ -33380,7 +33380,7 @@
         <v>1.16</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="AT162" t="n">
         <v>1.26</v>
@@ -33583,10 +33583,10 @@
         <v>1.3</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AU163" t="n">
         <v>1.23</v>
@@ -33786,7 +33786,7 @@
         <v>1.5</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="AT164" t="n">
         <v>1.67</v>
@@ -33989,10 +33989,10 @@
         <v>1.65</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="AU165" t="n">
         <v>1.79</v>
@@ -34195,7 +34195,7 @@
         <v>1.58</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AU166" t="n">
         <v>1.23</v>
@@ -34398,7 +34398,7 @@
         <v>1.67</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="AU167" t="n">
         <v>1.45</v>
@@ -34598,7 +34598,7 @@
         <v>1.48</v>
       </c>
       <c r="AS168" t="n">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AT168" t="n">
         <v>1.48</v>
@@ -35004,10 +35004,10 @@
         <v>1.52</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="AU170" t="n">
         <v>1.47</v>
@@ -35207,10 +35207,10 @@
         <v>1.86</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="AU171" t="n">
         <v>1.87</v>
@@ -35410,10 +35410,10 @@
         <v>1.24</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AU172" t="n">
         <v>1.37</v>
@@ -35616,7 +35616,7 @@
         <v>1.58</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="AU173" t="n">
         <v>1.23</v>
@@ -35816,10 +35816,10 @@
         <v>1.91</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="AU174" t="n">
         <v>1.22</v>
@@ -36019,7 +36019,7 @@
         <v>1.24</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AT175" t="n">
         <v>1.26</v>
@@ -36222,10 +36222,10 @@
         <v>1.45</v>
       </c>
       <c r="AS176" t="n">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="AU176" t="n">
         <v>1.38</v>
@@ -36425,10 +36425,10 @@
         <v>1.95</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="AU177" t="n">
         <v>1.76</v>
@@ -36631,7 +36631,7 @@
         <v>1.67</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AU178" t="n">
         <v>1.43</v>
@@ -36834,7 +36834,7 @@
         <v>0.43</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="AU179" t="n">
         <v>1.06</v>
@@ -37037,7 +37037,7 @@
         <v>1.48</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="AU180" t="n">
         <v>1.25</v>
@@ -37237,10 +37237,10 @@
         <v>1.96</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="AU181" t="n">
         <v>2.04</v>
@@ -37440,7 +37440,7 @@
         <v>0.45</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AT182" t="n">
         <v>0.43</v>
@@ -37646,7 +37646,7 @@
         <v>1.58</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AU183" t="n">
         <v>1.39</v>
@@ -37846,10 +37846,10 @@
         <v>1.3</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AU184" t="n">
         <v>1.75</v>
@@ -38049,7 +38049,7 @@
         <v>1.61</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="AT185" t="n">
         <v>1.67</v>
@@ -38255,7 +38255,7 @@
         <v>1.26</v>
       </c>
       <c r="AT186" t="n">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AU186" t="n">
         <v>1.5</v>
@@ -38307,6 +38307,1021 @@
       </c>
       <c r="BK186" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5103466</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Cyprus Second Division</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45003.4375</v>
+      </c>
+      <c r="F187" t="n">
+        <v>10</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>MEAP Nisou</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Othellos</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>2</v>
+      </c>
+      <c r="K187" t="n">
+        <v>2</v>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="n">
+        <v>2</v>
+      </c>
+      <c r="N187" t="n">
+        <v>3</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>['30', '37']</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>3</v>
+      </c>
+      <c r="R187" t="n">
+        <v>8</v>
+      </c>
+      <c r="S187" t="n">
+        <v>11</v>
+      </c>
+      <c r="T187" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U187" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V187" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W187" t="n">
+        <v>0</v>
+      </c>
+      <c r="X187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ187" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5103523</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Cyprus Second Division</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45003.4375</v>
+      </c>
+      <c r="F188" t="n">
+        <v>10</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Anagennisi Deryneia</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Ayia Napa</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="n">
+        <v>2</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N188" t="n">
+        <v>2</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>['4', '83']</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>5</v>
+      </c>
+      <c r="R188" t="n">
+        <v>4</v>
+      </c>
+      <c r="S188" t="n">
+        <v>9</v>
+      </c>
+      <c r="T188" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U188" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V188" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X188" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5103522</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Cyprus Second Division</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45003.4375</v>
+      </c>
+      <c r="F189" t="n">
+        <v>10</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>PAEEK</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Digenis Ypsonas</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="n">
+        <v>2</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>7</v>
+      </c>
+      <c r="R189" t="n">
+        <v>0</v>
+      </c>
+      <c r="S189" t="n">
+        <v>7</v>
+      </c>
+      <c r="T189" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U189" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V189" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W189" t="n">
+        <v>0</v>
+      </c>
+      <c r="X189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5103468</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Cyprus Second Division</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>45003.4375</v>
+      </c>
+      <c r="F190" t="n">
+        <v>10</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Omonia Aradippou</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Ahironas / Onisilos</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L190" t="n">
+        <v>2</v>
+      </c>
+      <c r="M190" t="n">
+        <v>2</v>
+      </c>
+      <c r="N190" t="n">
+        <v>4</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>['55', '85']</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>['76', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
+        <v>5</v>
+      </c>
+      <c r="R190" t="n">
+        <v>4</v>
+      </c>
+      <c r="S190" t="n">
+        <v>9</v>
+      </c>
+      <c r="T190" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U190" t="n">
+        <v>2</v>
+      </c>
+      <c r="V190" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W190" t="n">
+        <v>0</v>
+      </c>
+      <c r="X190" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ190" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR190" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT190" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU190" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF190" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG190" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH190" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI190" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ190" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK190" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5103467</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Cyprus Second Division</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>45003.4375</v>
+      </c>
+      <c r="F191" t="n">
+        <v>10</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>AE Zakakiou</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Ethnikos Achna</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="n">
+        <v>1</v>
+      </c>
+      <c r="K191" t="n">
+        <v>2</v>
+      </c>
+      <c r="L191" t="n">
+        <v>2</v>
+      </c>
+      <c r="M191" t="n">
+        <v>2</v>
+      </c>
+      <c r="N191" t="n">
+        <v>4</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>['22', '47']</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>['45', '50']</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>3</v>
+      </c>
+      <c r="R191" t="n">
+        <v>6</v>
+      </c>
+      <c r="S191" t="n">
+        <v>9</v>
+      </c>
+      <c r="T191" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U191" t="n">
+        <v>2</v>
+      </c>
+      <c r="V191" t="n">
+        <v>4</v>
+      </c>
+      <c r="W191" t="n">
+        <v>0</v>
+      </c>
+      <c r="X191" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ191" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA191" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC191" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD191" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE191" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF191" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG191" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH191" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI191" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ191" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK191" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Cyprus Second Division_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Cyprus Second Division_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK193"/>
+  <dimension ref="A1:BK200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT2" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT3" t="n">
         <v>0.92</v>
@@ -1309,7 +1309,7 @@
         <v>2.31</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT9" t="n">
         <v>0.44</v>
@@ -2730,7 +2730,7 @@
         <v>1.33</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU18" t="n">
         <v>2.15</v>
@@ -4351,10 +4351,10 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU19" t="n">
         <v>1.49</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>1.23</v>
       </c>
       <c r="AT21" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU21" t="n">
         <v>1.37</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT22" t="n">
         <v>1</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU23" t="n">
         <v>1.09</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT24" t="n">
         <v>0.92</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT30" t="n">
         <v>1.33</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT31" t="n">
         <v>1.75</v>
@@ -6993,7 +6993,7 @@
         <v>0.5</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU32" t="n">
         <v>1.41</v>
@@ -7196,7 +7196,7 @@
         <v>2.31</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU33" t="n">
         <v>1.56</v>
@@ -7396,10 +7396,10 @@
         <v>1.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU34" t="n">
         <v>1.62</v>
@@ -7802,10 +7802,10 @@
         <v>1.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT36" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU36" t="n">
         <v>1.24</v>
@@ -8005,7 +8005,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT37" t="n">
         <v>1</v>
@@ -8211,7 +8211,7 @@
         <v>0.09</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU38" t="n">
         <v>1.26</v>
@@ -8414,7 +8414,7 @@
         <v>0.63</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU39" t="n">
         <v>0.8</v>
@@ -8614,10 +8614,10 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU40" t="n">
         <v>1.09</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT41" t="n">
         <v>0.92</v>
@@ -9023,7 +9023,7 @@
         <v>1.33</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU42" t="n">
         <v>2.12</v>
@@ -9223,10 +9223,10 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU43" t="n">
         <v>1.75</v>
@@ -9629,7 +9629,7 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT45" t="n">
         <v>0.92</v>
@@ -9835,7 +9835,7 @@
         <v>1.5</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU46" t="n">
         <v>1.21</v>
@@ -10035,7 +10035,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT47" t="n">
         <v>1.5</v>
@@ -10850,7 +10850,7 @@
         <v>1.23</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU51" t="n">
         <v>1.38</v>
@@ -11050,7 +11050,7 @@
         <v>3</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT52" t="n">
         <v>1.83</v>
@@ -11253,10 +11253,10 @@
         <v>2</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT53" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU53" t="n">
         <v>1.53</v>
@@ -11456,7 +11456,7 @@
         <v>3</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT54" t="n">
         <v>1.75</v>
@@ -11659,10 +11659,10 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU55" t="n">
         <v>1.76</v>
@@ -12068,7 +12068,7 @@
         <v>0.5</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU57" t="n">
         <v>1.3</v>
@@ -12268,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT58" t="n">
         <v>1.33</v>
@@ -12677,7 +12677,7 @@
         <v>1.33</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU60" t="n">
         <v>2.25</v>
@@ -12880,7 +12880,7 @@
         <v>1.67</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU61" t="n">
         <v>1.88</v>
@@ -13080,7 +13080,7 @@
         <v>1.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT62" t="n">
         <v>1.67</v>
@@ -13489,7 +13489,7 @@
         <v>1.5</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU64" t="n">
         <v>1.16</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT65" t="n">
         <v>0.44</v>
@@ -14298,7 +14298,7 @@
         <v>2.33</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT68" t="n">
         <v>1.83</v>
@@ -14504,7 +14504,7 @@
         <v>0.63</v>
       </c>
       <c r="AT69" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU69" t="n">
         <v>1.07</v>
@@ -14704,10 +14704,10 @@
         <v>2</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU70" t="n">
         <v>1.15</v>
@@ -14910,7 +14910,7 @@
         <v>0.09</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU71" t="n">
         <v>1.28</v>
@@ -15110,10 +15110,10 @@
         <v>1.25</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU72" t="n">
         <v>0.97</v>
@@ -15313,7 +15313,7 @@
         <v>2</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT73" t="n">
         <v>1.75</v>
@@ -15516,7 +15516,7 @@
         <v>1</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT74" t="n">
         <v>0.92</v>
@@ -15722,7 +15722,7 @@
         <v>1.67</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU75" t="n">
         <v>2.03</v>
@@ -16125,10 +16125,10 @@
         <v>0.8</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU77" t="n">
         <v>1.26</v>
@@ -16531,10 +16531,10 @@
         <v>2.4</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU79" t="n">
         <v>1.71</v>
@@ -16734,7 +16734,7 @@
         <v>1.5</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT80" t="n">
         <v>1.33</v>
@@ -17140,10 +17140,10 @@
         <v>1.6</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU82" t="n">
         <v>1.4</v>
@@ -17343,10 +17343,10 @@
         <v>1.75</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU83" t="n">
         <v>1.36</v>
@@ -17752,7 +17752,7 @@
         <v>0.5</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU85" t="n">
         <v>1.26</v>
@@ -18155,7 +18155,7 @@
         <v>1.25</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT87" t="n">
         <v>1.5</v>
@@ -18564,7 +18564,7 @@
         <v>1</v>
       </c>
       <c r="AT89" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU89" t="n">
         <v>2.38</v>
@@ -18764,7 +18764,7 @@
         <v>0.67</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT90" t="n">
         <v>0.44</v>
@@ -19373,7 +19373,7 @@
         <v>1.2</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT93" t="n">
         <v>1.67</v>
@@ -19579,7 +19579,7 @@
         <v>2.31</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU94" t="n">
         <v>2.12</v>
@@ -19782,7 +19782,7 @@
         <v>1.23</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU95" t="n">
         <v>1.05</v>
@@ -19982,10 +19982,10 @@
         <v>2.17</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU96" t="n">
         <v>1.26</v>
@@ -20185,7 +20185,7 @@
         <v>0.8</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT97" t="n">
         <v>0.92</v>
@@ -20388,10 +20388,10 @@
         <v>1.83</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU98" t="n">
         <v>1.48</v>
@@ -20591,7 +20591,7 @@
         <v>1.2</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT99" t="n">
         <v>1.33</v>
@@ -21000,7 +21000,7 @@
         <v>0.63</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU101" t="n">
         <v>0.99</v>
@@ -21609,7 +21609,7 @@
         <v>1.5</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU104" t="n">
         <v>1.53</v>
@@ -21809,10 +21809,10 @@
         <v>2.17</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT105" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU105" t="n">
         <v>1.65</v>
@@ -22015,7 +22015,7 @@
         <v>1.33</v>
       </c>
       <c r="AT106" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU106" t="n">
         <v>2.12</v>
@@ -22215,7 +22215,7 @@
         <v>0.83</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT107" t="n">
         <v>0.92</v>
@@ -22418,10 +22418,10 @@
         <v>0.57</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU108" t="n">
         <v>1.45</v>
@@ -22621,7 +22621,7 @@
         <v>0.57</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT109" t="n">
         <v>0.44</v>
@@ -23027,7 +23027,7 @@
         <v>1.29</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT111" t="n">
         <v>1</v>
@@ -23233,7 +23233,7 @@
         <v>1.23</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU112" t="n">
         <v>1.05</v>
@@ -23433,10 +23433,10 @@
         <v>1.86</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU113" t="n">
         <v>1.82</v>
@@ -23842,7 +23842,7 @@
         <v>1.67</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU115" t="n">
         <v>2.03</v>
@@ -24042,7 +24042,7 @@
         <v>2.33</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT116" t="n">
         <v>1.83</v>
@@ -24248,7 +24248,7 @@
         <v>1</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU117" t="n">
         <v>2.09</v>
@@ -25057,10 +25057,10 @@
         <v>2</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU121" t="n">
         <v>1.3</v>
@@ -25260,10 +25260,10 @@
         <v>1.53</v>
       </c>
       <c r="AS122" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AU122" t="n">
         <v>2.06</v>
@@ -25463,10 +25463,10 @@
         <v>1.47</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AU123" t="n">
         <v>2.03</v>
@@ -25666,10 +25666,10 @@
         <v>1.73</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AU124" t="n">
         <v>1.49</v>
@@ -25869,7 +25869,7 @@
         <v>1.13</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AT125" t="n">
         <v>1.25</v>
@@ -26072,7 +26072,7 @@
         <v>0.87</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="AT126" t="n">
         <v>1.08</v>
@@ -26275,10 +26275,10 @@
         <v>0.27</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="AU127" t="n">
         <v>2.08</v>
@@ -26478,7 +26478,7 @@
         <v>0.6</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="AT128" t="n">
         <v>0.53</v>
@@ -26681,10 +26681,10 @@
         <v>2.06</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="AT129" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU129" t="n">
         <v>1.92</v>
@@ -26884,10 +26884,10 @@
         <v>1.69</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AU130" t="n">
         <v>1.28</v>
@@ -27090,7 +27090,7 @@
         <v>1.08</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AU131" t="n">
         <v>1.3</v>
@@ -27290,10 +27290,10 @@
         <v>1.44</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="AU132" t="n">
         <v>2.08</v>
@@ -27496,7 +27496,7 @@
         <v>0.53</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="AU133" t="n">
         <v>1.17</v>
@@ -27696,10 +27696,10 @@
         <v>1.93</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="AU134" t="n">
         <v>1.99</v>
@@ -27899,7 +27899,7 @@
         <v>1.06</v>
       </c>
       <c r="AS135" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="AT135" t="n">
         <v>1.25</v>
@@ -28102,10 +28102,10 @@
         <v>1.75</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU136" t="n">
         <v>1.57</v>
@@ -28305,10 +28305,10 @@
         <v>2.06</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="AU137" t="n">
         <v>1.77</v>
@@ -28508,10 +28508,10 @@
         <v>1.47</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AU138" t="n">
         <v>1.55</v>
@@ -28711,10 +28711,10 @@
         <v>0.41</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="AU139" t="n">
         <v>1.05</v>
@@ -29117,10 +29117,10 @@
         <v>1.56</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="AU141" t="n">
         <v>1.23</v>
@@ -29320,10 +29320,10 @@
         <v>1.41</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AU142" t="n">
         <v>1.44</v>
@@ -29523,10 +29523,10 @@
         <v>1.35</v>
       </c>
       <c r="AS143" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AU143" t="n">
         <v>2.04</v>
@@ -29726,10 +29726,10 @@
         <v>1.47</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="AU144" t="n">
         <v>1.25</v>
@@ -29929,10 +29929,10 @@
         <v>1.94</v>
       </c>
       <c r="AS145" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="AU145" t="n">
         <v>2.06</v>
@@ -30132,10 +30132,10 @@
         <v>1.83</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AU146" t="n">
         <v>1.95</v>
@@ -30335,10 +30335,10 @@
         <v>1.78</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU147" t="n">
         <v>1.72</v>
@@ -30538,10 +30538,10 @@
         <v>1.24</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AU148" t="n">
         <v>2.1</v>
@@ -30741,7 +30741,7 @@
         <v>1.06</v>
       </c>
       <c r="AS149" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="AT149" t="n">
         <v>1.08</v>
@@ -30944,10 +30944,10 @@
         <v>1.56</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="AU150" t="n">
         <v>1.12</v>
@@ -31147,10 +31147,10 @@
         <v>1.32</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AU151" t="n">
         <v>1.54</v>
@@ -31350,10 +31350,10 @@
         <v>1.37</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AU152" t="n">
         <v>1.77</v>
@@ -31553,10 +31553,10 @@
         <v>1.89</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT153" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU153" t="n">
         <v>1.37</v>
@@ -31756,10 +31756,10 @@
         <v>1.32</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="AU154" t="n">
         <v>1.39</v>
@@ -31962,7 +31962,7 @@
         <v>1.25</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AU155" t="n">
         <v>1.47</v>
@@ -32162,10 +32162,10 @@
         <v>0.42</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="AU156" t="n">
         <v>1.55</v>
@@ -32365,10 +32365,10 @@
         <v>1.89</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="AU157" t="n">
         <v>1.23</v>
@@ -32568,10 +32568,10 @@
         <v>1.53</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="AU158" t="n">
         <v>1.79</v>
@@ -32771,10 +32771,10 @@
         <v>1.8</v>
       </c>
       <c r="AS159" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AU159" t="n">
         <v>2.04</v>
@@ -32974,7 +32974,7 @@
         <v>1.11</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="AT160" t="n">
         <v>1.25</v>
@@ -33177,7 +33177,7 @@
         <v>1.16</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AT161" t="n">
         <v>1.08</v>
@@ -33380,10 +33380,10 @@
         <v>1.16</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AU162" t="n">
         <v>1.63</v>
@@ -33583,10 +33583,10 @@
         <v>1.3</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AU163" t="n">
         <v>1.23</v>
@@ -33786,10 +33786,10 @@
         <v>1.5</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="AU164" t="n">
         <v>1.57</v>
@@ -33989,10 +33989,10 @@
         <v>1.65</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU165" t="n">
         <v>1.79</v>
@@ -34192,10 +34192,10 @@
         <v>1.81</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="AU166" t="n">
         <v>1.23</v>
@@ -34395,10 +34395,10 @@
         <v>2</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="AT167" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU167" t="n">
         <v>1.45</v>
@@ -34601,7 +34601,7 @@
         <v>1.08</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="AU168" t="n">
         <v>1.33</v>
@@ -34801,10 +34801,10 @@
         <v>0.4</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="AU169" t="n">
         <v>1.41</v>
@@ -35007,7 +35007,7 @@
         <v>1.25</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="AU170" t="n">
         <v>1.47</v>
@@ -35207,10 +35207,10 @@
         <v>1.86</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="AU171" t="n">
         <v>1.87</v>
@@ -35410,10 +35410,10 @@
         <v>1.24</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AU172" t="n">
         <v>1.37</v>
@@ -35613,10 +35613,10 @@
         <v>1.68</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU173" t="n">
         <v>1.23</v>
@@ -35816,10 +35816,10 @@
         <v>1.91</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="AU174" t="n">
         <v>1.22</v>
@@ -36022,7 +36022,7 @@
         <v>1.25</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AU175" t="n">
         <v>1.47</v>
@@ -36225,7 +36225,7 @@
         <v>1.08</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="AU176" t="n">
         <v>1.38</v>
@@ -36425,10 +36425,10 @@
         <v>1.95</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AT177" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU177" t="n">
         <v>1.76</v>
@@ -36628,10 +36628,10 @@
         <v>1.77</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="AU178" t="n">
         <v>1.43</v>
@@ -36831,10 +36831,10 @@
         <v>1.43</v>
       </c>
       <c r="AS179" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AU179" t="n">
         <v>1.06</v>
@@ -37034,10 +37034,10 @@
         <v>1.41</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AU180" t="n">
         <v>1.25</v>
@@ -37237,10 +37237,10 @@
         <v>1.96</v>
       </c>
       <c r="AS181" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="AU181" t="n">
         <v>2.04</v>
@@ -37443,7 +37443,7 @@
         <v>1.25</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="AU182" t="n">
         <v>1.4</v>
@@ -37643,10 +37643,10 @@
         <v>1.13</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AU183" t="n">
         <v>1.39</v>
@@ -37846,10 +37846,10 @@
         <v>1.3</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AU184" t="n">
         <v>1.75</v>
@@ -38049,10 +38049,10 @@
         <v>1.61</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="AU185" t="n">
         <v>1.5</v>
@@ -38252,7 +38252,7 @@
         <v>1.05</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AT186" t="n">
         <v>1.08</v>
@@ -38455,10 +38455,10 @@
         <v>1.96</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AT187" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU187" t="n">
         <v>1.12</v>
@@ -38861,10 +38861,10 @@
         <v>1.43</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="AU189" t="n">
         <v>2.1</v>
@@ -39064,10 +39064,10 @@
         <v>1.58</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU190" t="n">
         <v>1.74</v>
@@ -39267,10 +39267,10 @@
         <v>1.75</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="AU191" t="n">
         <v>1.62</v>
@@ -39470,10 +39470,10 @@
         <v>1.48</v>
       </c>
       <c r="AS192" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="AU192" t="n">
         <v>1.06</v>
@@ -39673,10 +39673,10 @@
         <v>1.58</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AU193" t="n">
         <v>1.47</v>
@@ -39727,6 +39727,1427 @@
         <v>-1</v>
       </c>
       <c r="BK193" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5103529</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Cyprus Second Division</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>45017.41666666666</v>
+      </c>
+      <c r="F194" t="n">
+        <v>11</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Digenis Ypsonas</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Ermis</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>2</v>
+      </c>
+      <c r="K194" t="n">
+        <v>2</v>
+      </c>
+      <c r="L194" t="n">
+        <v>2</v>
+      </c>
+      <c r="M194" t="n">
+        <v>3</v>
+      </c>
+      <c r="N194" t="n">
+        <v>5</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>['86', '90+8']</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>['18', '41', '72']</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>5</v>
+      </c>
+      <c r="R194" t="n">
+        <v>3</v>
+      </c>
+      <c r="S194" t="n">
+        <v>8</v>
+      </c>
+      <c r="T194" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U194" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V194" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W194" t="n">
+        <v>0</v>
+      </c>
+      <c r="X194" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF194" t="n">
+        <v>15</v>
+      </c>
+      <c r="BG194" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH194" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ194" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5103470</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Cyprus Second Division</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>45017.41666666666</v>
+      </c>
+      <c r="F195" t="n">
+        <v>11</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Ethnikos Achna</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Othellos</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="n">
+        <v>2</v>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="n">
+        <v>3</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>['6', '57']</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>4</v>
+      </c>
+      <c r="R195" t="n">
+        <v>5</v>
+      </c>
+      <c r="S195" t="n">
+        <v>9</v>
+      </c>
+      <c r="T195" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U195" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V195" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W195" t="n">
+        <v>0</v>
+      </c>
+      <c r="X195" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF195" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG195" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH195" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ195" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK195" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5103471</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Cyprus Second Division</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>45017.41666666666</v>
+      </c>
+      <c r="F196" t="n">
+        <v>11</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Peyia</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Omonia Aradippou</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="n">
+        <v>2</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R196" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S196" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T196" t="n">
+        <v>0</v>
+      </c>
+      <c r="U196" t="n">
+        <v>0</v>
+      </c>
+      <c r="V196" t="n">
+        <v>0</v>
+      </c>
+      <c r="W196" t="n">
+        <v>0</v>
+      </c>
+      <c r="X196" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF196" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG196" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH196" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI196" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ196" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK196" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5103472</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Cyprus Second Division</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>45017.41666666666</v>
+      </c>
+      <c r="F197" t="n">
+        <v>11</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Omonia 29is Maiou</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>MEAP Nisou</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0</v>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N197" t="n">
+        <v>1</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>6</v>
+      </c>
+      <c r="R197" t="n">
+        <v>1</v>
+      </c>
+      <c r="S197" t="n">
+        <v>7</v>
+      </c>
+      <c r="T197" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U197" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V197" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="W197" t="n">
+        <v>0</v>
+      </c>
+      <c r="X197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF197" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG197" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH197" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI197" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ197" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK197" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5103473</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Cyprus Second Division</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>45017.41666666666</v>
+      </c>
+      <c r="F198" t="n">
+        <v>11</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Ahironas / Onisilos</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>AE Zakakiou</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>1</v>
+      </c>
+      <c r="J198" t="n">
+        <v>2</v>
+      </c>
+      <c r="K198" t="n">
+        <v>3</v>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="n">
+        <v>4</v>
+      </c>
+      <c r="N198" t="n">
+        <v>5</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>['14', '32', '48', '82']</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>4</v>
+      </c>
+      <c r="R198" t="n">
+        <v>5</v>
+      </c>
+      <c r="S198" t="n">
+        <v>9</v>
+      </c>
+      <c r="T198" t="n">
+        <v>0</v>
+      </c>
+      <c r="U198" t="n">
+        <v>0</v>
+      </c>
+      <c r="V198" t="n">
+        <v>0</v>
+      </c>
+      <c r="W198" t="n">
+        <v>0</v>
+      </c>
+      <c r="X198" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF198" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG198" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH198" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ198" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5103527</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Cyprus Second Division</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>45018.41666666666</v>
+      </c>
+      <c r="F199" t="n">
+        <v>11</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Anagennisi Deryneia</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Olympiada Lympion</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
+      <c r="K199" t="n">
+        <v>2</v>
+      </c>
+      <c r="L199" t="n">
+        <v>2</v>
+      </c>
+      <c r="M199" t="n">
+        <v>2</v>
+      </c>
+      <c r="N199" t="n">
+        <v>4</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>['12', '71']</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>['17', '83']</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R199" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S199" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T199" t="n">
+        <v>0</v>
+      </c>
+      <c r="U199" t="n">
+        <v>0</v>
+      </c>
+      <c r="V199" t="n">
+        <v>0</v>
+      </c>
+      <c r="W199" t="n">
+        <v>0</v>
+      </c>
+      <c r="X199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT199" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF199" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG199" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH199" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI199" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ199" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK199" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5103526</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Cyprus Second Division</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>45018.41666666666</v>
+      </c>
+      <c r="F200" t="n">
+        <v>11</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Xylotympou</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>PAEEK</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" t="n">
+        <v>0</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0</v>
+      </c>
+      <c r="N200" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R200" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S200" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T200" t="n">
+        <v>0</v>
+      </c>
+      <c r="U200" t="n">
+        <v>0</v>
+      </c>
+      <c r="V200" t="n">
+        <v>0</v>
+      </c>
+      <c r="W200" t="n">
+        <v>0</v>
+      </c>
+      <c r="X200" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK200" t="n">
         <v>-1</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Cyprus Second Division_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Cyprus Second Division_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK200"/>
+  <dimension ref="A1:BK204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT4" t="n">
         <v>1.54</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.5</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU14" t="n">
         <v>1.56</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT15" t="n">
         <v>1.33</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT26" t="n">
         <v>0.92</v>
@@ -5978,7 +5978,7 @@
         <v>1.5</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU27" t="n">
         <v>0.92</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU29" t="n">
         <v>1.88</v>
@@ -6790,7 +6790,7 @@
         <v>1.21</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU31" t="n">
         <v>0</v>
@@ -6990,7 +6990,7 @@
         <v>1.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT32" t="n">
         <v>0.71</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT33" t="n">
         <v>2</v>
@@ -7602,7 +7602,7 @@
         <v>1.23</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU35" t="n">
         <v>1.34</v>
@@ -9426,10 +9426,10 @@
         <v>1.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU44" t="n">
         <v>1.88</v>
@@ -10038,7 +10038,7 @@
         <v>1.21</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU47" t="n">
         <v>1.26</v>
@@ -10238,7 +10238,7 @@
         <v>1</v>
       </c>
       <c r="AS48" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT48" t="n">
         <v>0.44</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT49" t="n">
         <v>1.33</v>
@@ -11053,7 +11053,7 @@
         <v>1.38</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU52" t="n">
         <v>1.25</v>
@@ -11459,7 +11459,7 @@
         <v>1.5</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU54" t="n">
         <v>0.96</v>
@@ -12065,7 +12065,7 @@
         <v>3</v>
       </c>
       <c r="AS57" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT57" t="n">
         <v>1.43</v>
@@ -12471,7 +12471,7 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT59" t="n">
         <v>0.92</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT61" t="n">
         <v>0.71</v>
@@ -13083,7 +13083,7 @@
         <v>1.21</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU62" t="n">
         <v>1.26</v>
@@ -13286,7 +13286,7 @@
         <v>1.23</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU63" t="n">
         <v>1.26</v>
@@ -13892,7 +13892,7 @@
         <v>1.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT66" t="n">
         <v>1</v>
@@ -14095,7 +14095,7 @@
         <v>0.75</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT67" t="n">
         <v>0.92</v>
@@ -14301,7 +14301,7 @@
         <v>1.23</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU68" t="n">
         <v>1.48</v>
@@ -15316,7 +15316,7 @@
         <v>1.86</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU73" t="n">
         <v>1.64</v>
@@ -15719,7 +15719,7 @@
         <v>2.6</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT75" t="n">
         <v>1.64</v>
@@ -15922,7 +15922,7 @@
         <v>0.8</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT76" t="n">
         <v>0.44</v>
@@ -16940,7 +16940,7 @@
         <v>1.23</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU81" t="n">
         <v>1.09</v>
@@ -17549,7 +17549,7 @@
         <v>0.63</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU84" t="n">
         <v>1.1</v>
@@ -17749,7 +17749,7 @@
         <v>1.5</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT85" t="n">
         <v>1.54</v>
@@ -18158,7 +18158,7 @@
         <v>1.86</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU87" t="n">
         <v>1.53</v>
@@ -18361,7 +18361,7 @@
         <v>0.09</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU88" t="n">
         <v>1.13</v>
@@ -18561,7 +18561,7 @@
         <v>2</v>
       </c>
       <c r="AS89" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT89" t="n">
         <v>2.07</v>
@@ -19170,7 +19170,7 @@
         <v>1.5</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT92" t="n">
         <v>1</v>
@@ -19376,7 +19376,7 @@
         <v>1.38</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU93" t="n">
         <v>1.48</v>
@@ -19576,7 +19576,7 @@
         <v>2.17</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT94" t="n">
         <v>1.43</v>
@@ -20797,7 +20797,7 @@
         <v>0.09</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU100" t="n">
         <v>1.13</v>
@@ -21200,10 +21200,10 @@
         <v>2.4</v>
       </c>
       <c r="AS102" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU102" t="n">
         <v>1.36</v>
@@ -21403,10 +21403,10 @@
         <v>2.2</v>
       </c>
       <c r="AS103" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU103" t="n">
         <v>2.09</v>
@@ -22824,7 +22824,7 @@
         <v>1</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT110" t="n">
         <v>0.92</v>
@@ -23639,7 +23639,7 @@
         <v>1.5</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU114" t="n">
         <v>1.53</v>
@@ -23839,7 +23839,7 @@
         <v>2</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT115" t="n">
         <v>1.54</v>
@@ -24045,7 +24045,7 @@
         <v>1.58</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU116" t="n">
         <v>1.45</v>
@@ -24245,7 +24245,7 @@
         <v>1.83</v>
       </c>
       <c r="AS117" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT117" t="n">
         <v>2</v>
@@ -24448,10 +24448,10 @@
         <v>1.33</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU118" t="n">
         <v>1.36</v>
@@ -24857,7 +24857,7 @@
         <v>0.09</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU120" t="n">
         <v>1.07</v>
@@ -25260,10 +25260,10 @@
         <v>1.53</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="AU122" t="n">
         <v>2.06</v>
@@ -25463,10 +25463,10 @@
         <v>1.47</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AU123" t="n">
         <v>2.03</v>
@@ -25666,10 +25666,10 @@
         <v>1.73</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU124" t="n">
         <v>1.49</v>
@@ -26681,10 +26681,10 @@
         <v>2.06</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="AU129" t="n">
         <v>1.92</v>
@@ -26884,10 +26884,10 @@
         <v>1.69</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU130" t="n">
         <v>1.28</v>
@@ -27696,10 +27696,10 @@
         <v>1.93</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="AU134" t="n">
         <v>1.99</v>
@@ -28102,10 +28102,10 @@
         <v>1.75</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU136" t="n">
         <v>1.57</v>
@@ -28305,10 +28305,10 @@
         <v>2.06</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AU137" t="n">
         <v>1.77</v>
@@ -29117,10 +29117,10 @@
         <v>1.56</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="AU141" t="n">
         <v>1.23</v>
@@ -29320,10 +29320,10 @@
         <v>1.41</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="AU142" t="n">
         <v>1.44</v>
@@ -29523,10 +29523,10 @@
         <v>1.35</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AU143" t="n">
         <v>2.04</v>
@@ -29726,10 +29726,10 @@
         <v>1.47</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="AU144" t="n">
         <v>1.25</v>
@@ -29929,10 +29929,10 @@
         <v>1.94</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="AU145" t="n">
         <v>2.06</v>
@@ -30132,10 +30132,10 @@
         <v>1.83</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU146" t="n">
         <v>1.95</v>
@@ -30335,10 +30335,10 @@
         <v>1.78</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU147" t="n">
         <v>1.72</v>
@@ -31147,10 +31147,10 @@
         <v>1.32</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="AU151" t="n">
         <v>1.54</v>
@@ -31350,10 +31350,10 @@
         <v>1.37</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AU152" t="n">
         <v>1.77</v>
@@ -31553,10 +31553,10 @@
         <v>1.89</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="AU153" t="n">
         <v>1.37</v>
@@ -32365,10 +32365,10 @@
         <v>1.89</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AU157" t="n">
         <v>1.23</v>
@@ -32568,10 +32568,10 @@
         <v>1.53</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="AU158" t="n">
         <v>1.79</v>
@@ -32771,10 +32771,10 @@
         <v>1.8</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU159" t="n">
         <v>2.04</v>
@@ -33583,10 +33583,10 @@
         <v>1.3</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="AU163" t="n">
         <v>1.23</v>
@@ -33786,10 +33786,10 @@
         <v>1.5</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="AU164" t="n">
         <v>1.57</v>
@@ -33989,10 +33989,10 @@
         <v>1.65</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU165" t="n">
         <v>1.79</v>
@@ -34192,10 +34192,10 @@
         <v>1.81</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="AU166" t="n">
         <v>1.23</v>
@@ -34395,10 +34395,10 @@
         <v>2</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="AU167" t="n">
         <v>1.45</v>
@@ -35207,10 +35207,10 @@
         <v>1.86</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AU171" t="n">
         <v>1.87</v>
@@ -35410,10 +35410,10 @@
         <v>1.24</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AU172" t="n">
         <v>1.37</v>
@@ -35613,10 +35613,10 @@
         <v>1.68</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU173" t="n">
         <v>1.23</v>
@@ -35816,10 +35816,10 @@
         <v>1.91</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AU174" t="n">
         <v>1.22</v>
@@ -36425,10 +36425,10 @@
         <v>1.95</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="AU177" t="n">
         <v>1.76</v>
@@ -36628,10 +36628,10 @@
         <v>1.77</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="AU178" t="n">
         <v>1.43</v>
@@ -37237,10 +37237,10 @@
         <v>1.96</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AU181" t="n">
         <v>2.04</v>
@@ -37643,10 +37643,10 @@
         <v>1.13</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AU183" t="n">
         <v>1.39</v>
@@ -37846,10 +37846,10 @@
         <v>1.3</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="AU184" t="n">
         <v>1.75</v>
@@ -38049,10 +38049,10 @@
         <v>1.61</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="AU185" t="n">
         <v>1.5</v>
@@ -38455,10 +38455,10 @@
         <v>1.96</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="AU187" t="n">
         <v>1.12</v>
@@ -39064,10 +39064,10 @@
         <v>1.58</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU190" t="n">
         <v>1.74</v>
@@ -39267,10 +39267,10 @@
         <v>1.75</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="AU191" t="n">
         <v>1.62</v>
@@ -39673,10 +39673,10 @@
         <v>1.58</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU193" t="n">
         <v>1.47</v>
@@ -40079,10 +40079,10 @@
         <v>2</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="AU195" t="n">
         <v>1.75</v>
@@ -40282,10 +40282,10 @@
         <v>1.24</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="AU196" t="n">
         <v>1.52</v>
@@ -40485,10 +40485,10 @@
         <v>1.16</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AU197" t="n">
         <v>1.47</v>
@@ -40688,10 +40688,10 @@
         <v>1.84</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AU198" t="n">
         <v>1.49</v>
@@ -40807,13 +40807,13 @@
         </is>
       </c>
       <c r="Q199" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R199" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S199" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T199" t="n">
         <v>0</v>
@@ -41148,6 +41148,818 @@
         <v>-1</v>
       </c>
       <c r="BK200" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5103475</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Cyprus Second Division</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>45024.4375</v>
+      </c>
+      <c r="F201" t="n">
+        <v>12</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Omonia Aradippou</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Omonia 29is Maiou</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L201" t="n">
+        <v>0</v>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="n">
+        <v>1</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T201" t="n">
+        <v>0</v>
+      </c>
+      <c r="U201" t="n">
+        <v>0</v>
+      </c>
+      <c r="V201" t="n">
+        <v>0</v>
+      </c>
+      <c r="W201" t="n">
+        <v>0</v>
+      </c>
+      <c r="X201" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5103477</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Cyprus Second Division</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>45024.4375</v>
+      </c>
+      <c r="F202" t="n">
+        <v>12</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>AE Zakakiou</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Peyia</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>3</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>3</v>
+      </c>
+      <c r="L202" t="n">
+        <v>4</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0</v>
+      </c>
+      <c r="N202" t="n">
+        <v>4</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>['25', '41', '45+2', '50']</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R202" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S202" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T202" t="n">
+        <v>0</v>
+      </c>
+      <c r="U202" t="n">
+        <v>0</v>
+      </c>
+      <c r="V202" t="n">
+        <v>0</v>
+      </c>
+      <c r="W202" t="n">
+        <v>0</v>
+      </c>
+      <c r="X202" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5103474</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Cyprus Second Division</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45024.4375</v>
+      </c>
+      <c r="F203" t="n">
+        <v>12</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>MEAP Nisou</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Ethnikos Achna</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L203" t="n">
+        <v>0</v>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="n">
+        <v>1</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R203" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S203" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T203" t="n">
+        <v>0</v>
+      </c>
+      <c r="U203" t="n">
+        <v>0</v>
+      </c>
+      <c r="V203" t="n">
+        <v>0</v>
+      </c>
+      <c r="W203" t="n">
+        <v>0</v>
+      </c>
+      <c r="X203" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5103476</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Cyprus Second Division</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45024.4375</v>
+      </c>
+      <c r="F204" t="n">
+        <v>12</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Othellos</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Ahironas / Onisilos</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0</v>
+      </c>
+      <c r="N204" t="n">
+        <v>1</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R204" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S204" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T204" t="n">
+        <v>0</v>
+      </c>
+      <c r="U204" t="n">
+        <v>0</v>
+      </c>
+      <c r="V204" t="n">
+        <v>0</v>
+      </c>
+      <c r="W204" t="n">
+        <v>0</v>
+      </c>
+      <c r="X204" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK204" t="n">
         <v>-1</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Cyprus Second Division_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Cyprus Second Division_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK204"/>
+  <dimension ref="A1:BK207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.79</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT5" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT11" t="n">
         <v>0.71</v>
@@ -3542,7 +3542,7 @@
         <v>0.92</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT21" t="n">
         <v>2.07</v>
@@ -4963,7 +4963,7 @@
         <v>1.38</v>
       </c>
       <c r="AT22" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>1.5</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU24" t="n">
         <v>1.16</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AT25" t="n">
         <v>0.44</v>
@@ -6178,7 +6178,7 @@
         <v>1.5</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT28" t="n">
         <v>0.44</v>
@@ -6587,7 +6587,7 @@
         <v>1.58</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU30" t="n">
         <v>1.87</v>
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT35" t="n">
         <v>1.69</v>
@@ -8008,7 +8008,7 @@
         <v>1.23</v>
       </c>
       <c r="AT37" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU37" t="n">
         <v>1.35</v>
@@ -8208,7 +8208,7 @@
         <v>3</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AT38" t="n">
         <v>1.43</v>
@@ -8820,7 +8820,7 @@
         <v>1.86</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU41" t="n">
         <v>1.78</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT42" t="n">
         <v>1.64</v>
@@ -10444,7 +10444,7 @@
         <v>2.36</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU49" t="n">
         <v>1.85</v>
@@ -10647,7 +10647,7 @@
         <v>0.63</v>
       </c>
       <c r="AT50" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU50" t="n">
         <v>1.07</v>
@@ -10847,7 +10847,7 @@
         <v>1.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT51" t="n">
         <v>1.54</v>
@@ -11862,10 +11862,10 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU56" t="n">
         <v>1.07</v>
@@ -12271,7 +12271,7 @@
         <v>1.79</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU58" t="n">
         <v>1.71</v>
@@ -12674,7 +12674,7 @@
         <v>3</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT60" t="n">
         <v>1.43</v>
@@ -13283,7 +13283,7 @@
         <v>0.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT63" t="n">
         <v>1.38</v>
@@ -13895,7 +13895,7 @@
         <v>0.92</v>
       </c>
       <c r="AT66" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU66" t="n">
         <v>2.34</v>
@@ -14098,7 +14098,7 @@
         <v>0.46</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU67" t="n">
         <v>1.27</v>
@@ -14907,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AT71" t="n">
         <v>1.54</v>
@@ -16328,10 +16328,10 @@
         <v>1.2</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT78" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU78" t="n">
         <v>2.25</v>
@@ -16737,7 +16737,7 @@
         <v>1.5</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU80" t="n">
         <v>1.08</v>
@@ -16937,7 +16937,7 @@
         <v>1.25</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT81" t="n">
         <v>1.77</v>
@@ -17955,7 +17955,7 @@
         <v>1.5</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU86" t="n">
         <v>1.21</v>
@@ -18358,7 +18358,7 @@
         <v>2.25</v>
       </c>
       <c r="AS88" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AT88" t="n">
         <v>1.85</v>
@@ -18967,10 +18967,10 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU91" t="n">
         <v>2.14</v>
@@ -19173,7 +19173,7 @@
         <v>1.77</v>
       </c>
       <c r="AT92" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU92" t="n">
         <v>2.03</v>
@@ -19779,7 +19779,7 @@
         <v>0.67</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT95" t="n">
         <v>0.71</v>
@@ -20594,7 +20594,7 @@
         <v>1.23</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU99" t="n">
         <v>1.33</v>
@@ -20794,7 +20794,7 @@
         <v>1</v>
       </c>
       <c r="AS100" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AT100" t="n">
         <v>1.38</v>
@@ -22012,7 +22012,7 @@
         <v>2.29</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT106" t="n">
         <v>2.07</v>
@@ -22827,7 +22827,7 @@
         <v>2.36</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU110" t="n">
         <v>2.01</v>
@@ -23030,7 +23030,7 @@
         <v>1.21</v>
       </c>
       <c r="AT111" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU111" t="n">
         <v>1.26</v>
@@ -23230,7 +23230,7 @@
         <v>1.86</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT112" t="n">
         <v>1.64</v>
@@ -24654,7 +24654,7 @@
         <v>0.63</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU119" t="n">
         <v>0.99</v>
@@ -24854,7 +24854,7 @@
         <v>1.17</v>
       </c>
       <c r="AS120" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AT120" t="n">
         <v>1.77</v>
@@ -25869,10 +25869,10 @@
         <v>1.13</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU125" t="n">
         <v>1.39</v>
@@ -26072,7 +26072,7 @@
         <v>0.87</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AT126" t="n">
         <v>1.08</v>
@@ -26275,10 +26275,10 @@
         <v>0.27</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AU127" t="n">
         <v>2.08</v>
@@ -26478,7 +26478,7 @@
         <v>0.6</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="AT128" t="n">
         <v>0.53</v>
@@ -27090,7 +27090,7 @@
         <v>1.08</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="AU131" t="n">
         <v>1.3</v>
@@ -27290,10 +27290,10 @@
         <v>1.44</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="AU132" t="n">
         <v>2.08</v>
@@ -27496,7 +27496,7 @@
         <v>0.53</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AU133" t="n">
         <v>1.17</v>
@@ -27899,10 +27899,10 @@
         <v>1.06</v>
       </c>
       <c r="AS135" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU135" t="n">
         <v>1.03</v>
@@ -28508,10 +28508,10 @@
         <v>1.47</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AU138" t="n">
         <v>1.55</v>
@@ -28711,10 +28711,10 @@
         <v>0.41</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AU139" t="n">
         <v>1.05</v>
@@ -28914,7 +28914,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT140" t="n">
         <v>1.08</v>
@@ -30538,10 +30538,10 @@
         <v>1.24</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="AU148" t="n">
         <v>2.1</v>
@@ -30741,7 +30741,7 @@
         <v>1.06</v>
       </c>
       <c r="AS149" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AT149" t="n">
         <v>1.08</v>
@@ -30944,10 +30944,10 @@
         <v>1.56</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AU150" t="n">
         <v>1.12</v>
@@ -31756,10 +31756,10 @@
         <v>1.32</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="AU154" t="n">
         <v>1.39</v>
@@ -31959,10 +31959,10 @@
         <v>1.37</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AU155" t="n">
         <v>1.47</v>
@@ -32162,10 +32162,10 @@
         <v>0.42</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AU156" t="n">
         <v>1.55</v>
@@ -32974,10 +32974,10 @@
         <v>1.11</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU160" t="n">
         <v>1.24</v>
@@ -33177,7 +33177,7 @@
         <v>1.16</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AT161" t="n">
         <v>1.08</v>
@@ -33380,10 +33380,10 @@
         <v>1.16</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="AU162" t="n">
         <v>1.63</v>
@@ -34601,7 +34601,7 @@
         <v>1.08</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="AU168" t="n">
         <v>1.33</v>
@@ -34801,10 +34801,10 @@
         <v>0.4</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AU169" t="n">
         <v>1.41</v>
@@ -35004,10 +35004,10 @@
         <v>1.52</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AU170" t="n">
         <v>1.47</v>
@@ -36019,10 +36019,10 @@
         <v>1.24</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="AU175" t="n">
         <v>1.47</v>
@@ -36225,7 +36225,7 @@
         <v>1.08</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AU176" t="n">
         <v>1.38</v>
@@ -36831,10 +36831,10 @@
         <v>1.43</v>
       </c>
       <c r="AS179" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AU179" t="n">
         <v>1.06</v>
@@ -37034,10 +37034,10 @@
         <v>1.41</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AU180" t="n">
         <v>1.25</v>
@@ -37440,10 +37440,10 @@
         <v>0.45</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AU182" t="n">
         <v>1.4</v>
@@ -38252,7 +38252,7 @@
         <v>1.05</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="AT186" t="n">
         <v>1.08</v>
@@ -38661,7 +38661,7 @@
         <v>1.08</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU188" t="n">
         <v>1.4</v>
@@ -38861,10 +38861,10 @@
         <v>1.43</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AU189" t="n">
         <v>2.1</v>
@@ -39470,10 +39470,10 @@
         <v>1.48</v>
       </c>
       <c r="AS192" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="AU192" t="n">
         <v>1.06</v>
@@ -39876,10 +39876,10 @@
         <v>1.54</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="AU194" t="n">
         <v>1.64</v>
@@ -40894,7 +40894,7 @@
         <v>1.08</v>
       </c>
       <c r="AT199" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AU199" t="n">
         <v>1.38</v>
@@ -41094,10 +41094,10 @@
         <v>1.46</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AU200" t="n">
         <v>1.46</v>
@@ -41213,13 +41213,13 @@
         </is>
       </c>
       <c r="Q201" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R201" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S201" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T201" t="n">
         <v>0</v>
@@ -41416,13 +41416,13 @@
         </is>
       </c>
       <c r="Q202" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R202" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S202" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="T202" t="n">
         <v>0</v>
@@ -41619,13 +41619,13 @@
         </is>
       </c>
       <c r="Q203" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R203" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S203" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T203" t="n">
         <v>0</v>
@@ -41822,13 +41822,13 @@
         </is>
       </c>
       <c r="Q204" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R204" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S204" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T204" t="n">
         <v>0</v>
@@ -41960,6 +41960,615 @@
         <v>-1</v>
       </c>
       <c r="BK204" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5103533</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Cyprus Second Division</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45025.4375</v>
+      </c>
+      <c r="F205" t="n">
+        <v>12</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Olympiada Lympion</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Digenis Ypsonas</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>2</v>
+      </c>
+      <c r="J205" t="n">
+        <v>4</v>
+      </c>
+      <c r="K205" t="n">
+        <v>6</v>
+      </c>
+      <c r="L205" t="n">
+        <v>2</v>
+      </c>
+      <c r="M205" t="n">
+        <v>4</v>
+      </c>
+      <c r="N205" t="n">
+        <v>6</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>['39', '44']</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>['13', '16', '32', '33']</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>2</v>
+      </c>
+      <c r="R205" t="n">
+        <v>6</v>
+      </c>
+      <c r="S205" t="n">
+        <v>8</v>
+      </c>
+      <c r="T205" t="n">
+        <v>0</v>
+      </c>
+      <c r="U205" t="n">
+        <v>0</v>
+      </c>
+      <c r="V205" t="n">
+        <v>0</v>
+      </c>
+      <c r="W205" t="n">
+        <v>0</v>
+      </c>
+      <c r="X205" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5103532</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Cyprus Second Division</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>45025.4375</v>
+      </c>
+      <c r="F206" t="n">
+        <v>12</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>PAEEK</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Ayia Napa</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>2</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>2</v>
+      </c>
+      <c r="L206" t="n">
+        <v>3</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N206" t="n">
+        <v>3</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>['13', '18', '74']</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>5</v>
+      </c>
+      <c r="R206" t="n">
+        <v>6</v>
+      </c>
+      <c r="S206" t="n">
+        <v>11</v>
+      </c>
+      <c r="T206" t="n">
+        <v>0</v>
+      </c>
+      <c r="U206" t="n">
+        <v>0</v>
+      </c>
+      <c r="V206" t="n">
+        <v>0</v>
+      </c>
+      <c r="W206" t="n">
+        <v>0</v>
+      </c>
+      <c r="X206" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG206" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5103530</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Cyprus Second Division</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>45025.4375</v>
+      </c>
+      <c r="F207" t="n">
+        <v>12</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Ermis</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Xylotympou</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="n">
+        <v>3</v>
+      </c>
+      <c r="N207" t="n">
+        <v>4</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>['55', '68', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>1</v>
+      </c>
+      <c r="R207" t="n">
+        <v>1</v>
+      </c>
+      <c r="S207" t="n">
+        <v>2</v>
+      </c>
+      <c r="T207" t="n">
+        <v>0</v>
+      </c>
+      <c r="U207" t="n">
+        <v>0</v>
+      </c>
+      <c r="V207" t="n">
+        <v>0</v>
+      </c>
+      <c r="W207" t="n">
+        <v>0</v>
+      </c>
+      <c r="X207" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH207" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ207" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK207" t="n">
         <v>-1</v>
       </c>
     </row>
